--- a/Python_output_files/Tables/differential_glycomics_treatment.xlsx
+++ b/Python_output_files/Tables/differential_glycomics_treatment.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,11 +479,6 @@
           <t>Equivalence p-val</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>log_p</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -492,3261 +487,2973 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01672678416192941</v>
+        <v>0.01667049906431307</v>
       </c>
       <c r="C2" t="n">
-        <v>1.886220535616933</v>
+        <v>1.873845045285937</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09340086652530785</v>
+        <v>0.09549028283096628</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9064880756684109</v>
+        <v>0.9001625508739377</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9102458747868201</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.9084063853256185</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)GlcNAc(b1-?)GalNAc</t>
+          <t>Terminal_Neu5Ac(a2-?)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06028394886789278</v>
+        <v>1.2013192295941</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2102797110560803</v>
+        <v>0.2132301436573085</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7739987337692873</v>
+        <v>0.1158810173302006</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1463830672914183</v>
+        <v>0.8386123829598201</v>
       </c>
       <c r="I3" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.8982067774976727</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-2)[Gal(a1-3)]Gal</t>
+          <t>Terminal_Fuc(a1-6)GlcNAc</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05513258710253732</v>
+        <v>0.06785390868357059</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1741659705973518</v>
+        <v>0.3576220121378543</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7714835806316818</v>
+        <v>0.1236865430398168</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.1483036289760745</v>
+        <v>0.829439890456912</v>
       </c>
       <c r="I4" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.8982067774976727</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-4)</t>
+          <t>Terminal_GalNAc(a1-3)Gal(b1-3)GlcNAc</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.551012835917911</v>
+        <v>0.1449945263150607</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.05354500463262202</v>
+        <v>-0.3741068303070103</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7706638010957693</v>
+        <v>0.1777910544863525</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1491222294273134</v>
+        <v>-0.7096227523103654</v>
       </c>
       <c r="I5" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.8643212292202612</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-3)[GlcNAcOS(b1-6)]GalNAc</t>
+          <t>Terminal_GalNAc(a1-?)Gal(b1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02107796470062524</v>
+        <v>0.1994124224830299</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1331877765104788</v>
+        <v>-0.3231473762059878</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7657729636088904</v>
+        <v>0.2214938142421878</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1520278413825585</v>
+        <v>-0.6408890950580147</v>
       </c>
       <c r="I6" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.8385471329256076</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-?)</t>
+          <t>Terminal_Fuc(a1-2)Gal(b1-3)GlcNAc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.700342198931986</v>
+        <v>0.2291152695101012</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.05111490528875073</v>
+        <v>-0.3538486275468102</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7636938538972829</v>
+        <v>0.2237414271415214</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.1538545537184673</v>
+        <v>-0.6372731543545773</v>
       </c>
       <c r="I7" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.8385471329256076</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Terminal_GalOS(b1-3)GalNAc</t>
+          <t>Terminal_HexNAc(b1-4)GlcNAc(b1-3)Gal</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.003322750727396544</v>
+        <v>0.2081352898366924</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2250165723964157</v>
+        <v>-0.1701995553171924</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7548757837967575</v>
+        <v>0.357065026466472</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1600249157873802</v>
+        <v>-0.4764630164257233</v>
       </c>
       <c r="I8" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7525148387785402</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Terminal_GlcNAc(a1-4)Gal(b1-4)GlcNAc</t>
+          <t>Terminal_Fuc(a1-?)Gal(b1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5967275109049143</v>
+        <v>8.366323055482047</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.09144080796307108</v>
+        <v>-0.161993970829327</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7543866884044281</v>
+        <v>0.3718997278941778</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1599475836002613</v>
+        <v>-0.4614417788015625</v>
       </c>
       <c r="I9" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7500773579132811</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-3)Gal(b1-3)GalNAc</t>
+          <t>Terminal_Fuc(a1-2)Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3221972773144623</v>
+        <v>6.629466141569768</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1242731942744597</v>
+        <v>-0.1542735354716056</v>
       </c>
       <c r="D10" t="n">
-        <v>0.733000846219088</v>
+        <v>0.3836759385627958</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1742110529523123</v>
+        <v>-0.4497958586948387</v>
       </c>
       <c r="I10" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-3)</t>
+          <t>Terminal_Fuc(a1-?)Gal(b1-?)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.003050967387698</v>
+        <v>10.58829227135541</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.04986793783977372</v>
+        <v>-0.1385258131276466</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7316174241964284</v>
+        <v>0.3876743316107133</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.1752926160952727</v>
+        <v>-0.4460057186019515</v>
       </c>
       <c r="I11" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-?)GlcNAc(b1-?)Gal</t>
+          <t>Terminal_Fuc(a1-3)GlcNAc(b1-6)GalNAc</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5456327760526627</v>
+        <v>0.006200497622671983</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.07115265433518347</v>
+        <v>-0.1109033497364353</v>
       </c>
       <c r="D12" t="n">
-        <v>0.774279555795311</v>
+        <v>0.3922656639647601</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.1465450062336996</v>
+        <v>-0.441733078457406</v>
       </c>
       <c r="I12" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Terminal_Gal(a1-3)Gal(b1-3)GalNAc</t>
+          <t>Terminal_Fuc(a1-3)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.07924370690784079</v>
+        <v>0.2649883416540424</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1386166252092715</v>
+        <v>-0.190006001076866</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7302468466210055</v>
+        <v>0.3962282056367828</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1759685605231107</v>
+        <v>-0.4391270656292688</v>
       </c>
       <c r="I13" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-2)Gal(b1-3)GalNAc</t>
+          <t>Terminal_Fuc(a1-3)GlcNAc(b1-3)Gal</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.267680736522102</v>
+        <v>0.2587878440313705</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.04122988672821926</v>
+        <v>-0.1913884058360056</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7242862325309745</v>
+        <v>0.3988766671711685</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.180038527567696</v>
+        <v>-0.436640044454952</v>
       </c>
       <c r="I14" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-4)GlcNAc(b1-3)</t>
+          <t>Terminal_Gal(b1-3)[GlcNAc(b1-6)]GalNAc</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.409431020255614</v>
+        <v>0.2411866415033868</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.09563322827119292</v>
+        <v>-0.149009558472756</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7090662308092741</v>
+        <v>0.4048276502799619</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.1905389359952481</v>
+        <v>-0.4294978041506611</v>
       </c>
       <c r="I15" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-?)Gal(?1-?)GlcNAc</t>
+          <t>Terminal_Neu5Ac(a2-3)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4886686046751324</v>
+        <v>0.4516436615854726</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1154629210508444</v>
+        <v>0.2715563433070067</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7082984862633213</v>
+        <v>0.4143164052825494</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1920106260140455</v>
+        <v>0.4207610066735187</v>
       </c>
       <c r="I16" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)Gal(?1-?)GlcNAc</t>
+          <t>Terminal_Neu5Gc(a2-?)Gal(?1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.421779805156593</v>
+        <v>0.1813749244036417</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.09036250105860866</v>
+        <v>0.3697638347253951</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7082441524241899</v>
+        <v>0.4205618217892325</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.1910384837158467</v>
+        <v>0.4149442153249849</v>
       </c>
       <c r="I17" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-4)GlcNAc(b1-3)Gal</t>
+          <t>Terminal_GlcNAc(b1-6)GalNAc</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3993543804262855</v>
+        <v>0.8664009571303972</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.09638820764970468</v>
+        <v>-0.1321021818809243</v>
       </c>
       <c r="D18" t="n">
-        <v>0.707777599761117</v>
+        <v>0.4215777054595594</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.1914255807589817</v>
+        <v>-0.4145016608481403</v>
       </c>
       <c r="I18" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)Gal(?1-?)</t>
+          <t>Terminal_Fuc(a1-2)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.431186417355545</v>
+        <v>12.03501066098212</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.09400272786940622</v>
+        <v>-0.1305291446530781</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6974893436352678</v>
+        <v>0.4258599924839965</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.1984769165131165</v>
+        <v>-0.4102380043605343</v>
       </c>
       <c r="I19" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)[HexNAc(?1-?)]GalNAc</t>
+          <t>Terminal_Fuc(a1-?)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.007497433743092756</v>
+        <v>12.48133604214712</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.08252630660300619</v>
+        <v>-0.1288790166470939</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6912328789722947</v>
+        <v>0.432780513027106</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.2029084574361346</v>
+        <v>-0.4039659457280985</v>
       </c>
       <c r="I20" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
+          <t>Terminal_Neu5Ac(a2-?)HexNAc(?1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01007663982932857</v>
+        <v>0.1023668192385151</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.1138532750866923</v>
+        <v>0.7621245803338359</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6881402124206977</v>
+        <v>0.4379948602361032</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.2049779178414453</v>
+        <v>0.4099850889227588</v>
       </c>
       <c r="I21" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)</t>
+          <t>Terminal_Neu5Ac(a2-?)Gal(b1-?)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.841758515474631</v>
+        <v>0.4000735481673354</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.08767267281382551</v>
+        <v>0.2653628487113555</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6834622310137692</v>
+        <v>0.4615749993833939</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.2088576611190907</v>
+        <v>0.3789086834689918</v>
       </c>
       <c r="I22" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-?)GlcNAc(b1-?)</t>
+          <t>Terminal_HexNAc(?1-?)GlcNAc(b1-?)GalNAc</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.938113398072335</v>
+        <v>0.09187445459613741</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.06424545470102938</v>
+        <v>-0.1998232434743891</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7276258494830157</v>
+        <v>0.4682390064049015</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.1782986869314022</v>
+        <v>-0.3734575770854086</v>
       </c>
       <c r="I23" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-3)Man(b1-4)GlcNAc</t>
+          <t>Terminal_Gal(b1-?)[Fuc(a1-?)]GalNAc</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0746581702698059</v>
+        <v>0.01649502016574012</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1715392970000332</v>
+        <v>-0.1377022133259054</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6798104901081579</v>
+        <v>0.4683425867015398</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2113102630950652</v>
+        <v>-0.373148898737501</v>
       </c>
       <c r="I24" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-4)GlcNAc(b1-6)GalNAc</t>
+          <t>Terminal_GlcNAc(b1-?)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.141581815662297</v>
+        <v>0.8830714561947105</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.05328113252975886</v>
+        <v>-0.1079124959352429</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7752050573355287</v>
+        <v>0.4944071602122446</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.1458057736921471</v>
+        <v>-0.3514772705778881</v>
       </c>
       <c r="I25" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(b1-4)GlcNAc(b1-6)GalNAc</t>
+          <t>Terminal_Neu5Ac(a2-3)Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1970979184271449</v>
+        <v>0.1023388578484255</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.06232892137673396</v>
+        <v>0.3984469001676961</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7795416663397412</v>
+        <v>0.497532568136881</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.142684662244043</v>
+        <v>0.3494976711626018</v>
       </c>
       <c r="I26" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Terminal_Gal(a1-3)Gal(b1-4)GlcNAc</t>
+          <t>Terminal_Neu5Gc(a2-?)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.08841108761004628</v>
+        <v>0.3795341879898377</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.01597173204463587</v>
+        <v>0.3057984979281034</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9448492295071019</v>
+        <v>0.5095843787825591</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.03521518245569576</v>
+        <v>0.3385700455467439</v>
       </c>
       <c r="I27" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Terminal_GlcNAcOS(b1-6)GalNAc</t>
+          <t>Terminal_Man(a1-2)Man(a1-6)Man</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.03682332907107707</v>
+        <v>0.1036622388921339</v>
       </c>
       <c r="C28" t="n">
-        <v>0.03177747191845942</v>
+        <v>0.2192666734659809</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9395501598592546</v>
+        <v>0.515131219479257</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H28" t="n">
-        <v>0.03865584798236394</v>
+        <v>0.3340638624159585</v>
       </c>
       <c r="I28" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Terminal_Gal(a1-?)Gal(b1-?)</t>
+          <t>Terminal_Man(a1-2)Man(a1-2)Man</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.167654794517887</v>
+        <v>0.1855440100145097</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01852138712266549</v>
+        <v>0.2013613028990417</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9386632328443963</v>
+        <v>0.5476576144224861</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H29" t="n">
-        <v>0.03918530272069902</v>
+        <v>0.3081698104774596</v>
       </c>
       <c r="I29" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(?1-?)Gal(b1-?)</t>
+          <t>Terminal_Fuc(a1-2)Gal(b1-3)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.075163583316878</v>
+        <v>2.444883987760791</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.02205520827928975</v>
+        <v>-0.07313425101912152</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9237078654051836</v>
+        <v>0.5508572198533788</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.04876294847689765</v>
+        <v>-0.3057566751966744</v>
       </c>
       <c r="I30" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-6)GalNAc</t>
+          <t>Terminal_HexNAc(?1-?)Gal(?1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1769878369180551</v>
+        <v>0.02083421803543961</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03597119994158438</v>
+        <v>-0.3621205923732413</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9233635038632886</v>
+        <v>0.5520510688724607</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H31" t="n">
-        <v>0.04903674803320798</v>
+        <v>-0.3055912209292131</v>
       </c>
       <c r="I31" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(?1-?)</t>
+          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)GalNAc</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.445225110489512</v>
+        <v>0.9077641677352409</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.02103711734805369</v>
+        <v>-0.1142730288851341</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9228811273062468</v>
+        <v>0.5540753907386302</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.04934485316923642</v>
+        <v>-0.3048234986613206</v>
       </c>
       <c r="I32" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(?1-?)Gal(b1-?)GalNAc</t>
+          <t>Terminal_Fuc(a1-?)GlcNAc(b1-?)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.5113637888380957</v>
+        <v>0.3132204267868958</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.02639149678727204</v>
+        <v>-0.143534262775586</v>
       </c>
       <c r="D33" t="n">
-        <v>0.921886168414186</v>
+        <v>0.5580478379342126</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.04992364273411883</v>
+        <v>-0.3001458334795904</v>
       </c>
       <c r="I33" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(?1-?)Gal(b1-?)GlcNAc</t>
+          <t>Terminal_HexNAc(b1-?)GlcNAc(b1-?)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.5637997944787819</v>
+        <v>0.4055488321709756</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.02141370980330626</v>
+        <v>-0.1149390343743182</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9162871043040779</v>
+        <v>0.5616287283774464</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.05352845912156282</v>
+        <v>-0.2972946743927719</v>
       </c>
       <c r="I34" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-3)GalNAc</t>
+          <t>Terminal_Man(a1-2)</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.6883727269666495</v>
+        <v>0.5217288762205934</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.01693325363770626</v>
+        <v>0.1932934408848297</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9157592322205655</v>
+        <v>0.5807918359096278</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.05398843842586108</v>
+        <v>0.2828030392875958</v>
       </c>
       <c r="I35" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-?)GlcNAc(b1-?)GalNAc</t>
+          <t>Terminal_Fuc(a1-?)GalNAc</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.151658455491626</v>
+        <v>0.02658837998360089</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.05311095117713194</v>
+        <v>-0.09974441375996823</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7753238464373224</v>
+        <v>0.5914824984071252</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.1457350189253397</v>
+        <v>-0.2755761286690726</v>
       </c>
       <c r="I36" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Terminal_GalNAc(b1-4)GlcNAc(b1-6)</t>
+          <t>Terminal_Gal(b1-3)[Neu5Ac(a2-6)]GalNAc</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.7727159821833094</v>
+        <v>0.03270319762710939</v>
       </c>
       <c r="C37" t="n">
-        <v>0.02437588108528033</v>
+        <v>-0.1836459979207813</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8999268104706841</v>
+        <v>0.6004741206179229</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0641379869733391</v>
+        <v>-0.2679277844115251</v>
       </c>
       <c r="I37" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Terminal_GalNAc(b1-4)</t>
+          <t>Terminal_Man(?1-?)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.8677738597566522</v>
+        <v>0.2371469654918545</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0296683862717213</v>
+        <v>0.1759167526569834</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8757893829714264</v>
+        <v>0.628328533331621</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H38" t="n">
-        <v>0.07972500190721492</v>
+        <v>0.247516705024683</v>
       </c>
       <c r="I38" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Terminal_GalNAc(b1-4)GlcNAc(b1-6)GalNAc</t>
+          <t>Terminal_Man(a1-?)Man(a1-?)Man</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.8268087182286114</v>
+        <v>1.092797822224585</v>
       </c>
       <c r="C39" t="n">
-        <v>0.03159094652009831</v>
+        <v>0.1766308442327968</v>
       </c>
       <c r="D39" t="n">
-        <v>0.872478458474785</v>
+        <v>0.6291630603456194</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H39" t="n">
-        <v>0.08184730445489848</v>
+        <v>0.2470410958151227</v>
       </c>
       <c r="I39" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Terminal_Gal(?1-?)Gal(?1-?)GlcNAc</t>
+          <t>Terminal_Man(a1-?)</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.02959213117620383</v>
+        <v>1.167590135682389</v>
       </c>
       <c r="C40" t="n">
-        <v>0.03848764584101894</v>
+        <v>0.1765672590013097</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8425641392604373</v>
+        <v>0.6318506346464079</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1011745630032111</v>
+        <v>0.2451228437202013</v>
       </c>
       <c r="I40" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Terminal_GlcNAc(a1-?)Gal(?1-?)GlcNAc</t>
+          <t>Terminal_Man(a1-2)Man(a1-3)Man</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.9257537232137372</v>
+        <v>0.2325226273139497</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.06305006430187454</v>
+        <v>0.1748224049537335</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8395509251580713</v>
+        <v>0.6358192631177868</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.1031425564446052</v>
+        <v>0.2421920717324034</v>
       </c>
       <c r="I41" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Terminal_GlcNAc(a1-4)</t>
+          <t>Terminal_Neu5Gc(a2-3)Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.070096515240011</v>
+        <v>0.07292680155331292</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.05483100748537151</v>
+        <v>0.2410613414206831</v>
       </c>
       <c r="D42" t="n">
-        <v>0.836356466361476</v>
+        <v>0.6388960082565436</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.1053408832777627</v>
+        <v>0.2400415475713246</v>
       </c>
       <c r="I42" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Terminal_GalNAc(b1-?)[Fuc(a1-?)]GlcNAc</t>
+          <t>Terminal_GalNAc(a1-3)Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.05409273604530199</v>
+        <v>0.05441789616796924</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2689780589608419</v>
+        <v>-0.1528215127731858</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8180203389157502</v>
+        <v>0.6406663867503366</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1172431573414501</v>
+        <v>-0.2394876675310494</v>
       </c>
       <c r="I43" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Terminal_GlcNAc(a1-?)Gal(b1-?)</t>
+          <t>Terminal_Neu5Ac(a2-?)Gal(b1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.144342792026275</v>
+        <v>0.1182261313138436</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.05991940338918766</v>
+        <v>0.2023177160993588</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8042510928092089</v>
+        <v>0.645944802046569</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.1266108650224659</v>
+        <v>0.2373704378669758</v>
       </c>
       <c r="I44" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)Gal</t>
+          <t>Terminal_Neu5Gc(a2-6)GalNAc</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.888071565098306</v>
+        <v>0.1252324620328831</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.06159276451610829</v>
+        <v>0.2220971893023869</v>
       </c>
       <c r="D45" t="n">
-        <v>0.8018951844605235</v>
+        <v>0.646916213923195</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.1281200265092635</v>
+        <v>0.2344427986760372</v>
       </c>
       <c r="I45" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-3)[GalNAc(b1-4)]Gal</t>
+          <t>Terminal_Fuc(a1-?)[Gal(?1-?)]GlcNAc</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.04096514152804111</v>
+        <v>0.00944482725800827</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.06316005060099064</v>
+        <v>-0.5446661883016284</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8008640977734383</v>
+        <v>0.6496277450831305</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.1286007449318634</v>
+        <v>-0.2321091528858256</v>
       </c>
       <c r="I46" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Terminal_GlcNAc(a1-4)Gal(b1-3)GalNAc</t>
+          <t>Terminal_Man(a1-3)[Man(a1-6)]Man</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.5476152811213604</v>
+        <v>0.2855344730019958</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.02937150261527055</v>
+        <v>0.1615278586824349</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8827662266291837</v>
+        <v>0.6723454498388953</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.07513104780010639</v>
+        <v>0.2161879520029171</v>
       </c>
       <c r="I47" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-3)Gal(b1-3)</t>
+          <t>Terminal_Man(a1-3)</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2812321357864212</v>
+        <v>0.3603267864597999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1687690346391704</v>
+        <v>0.164247543974724</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6745042991082628</v>
+        <v>0.6726747279513914</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2145899432059246</v>
+        <v>0.2160359743881113</v>
       </c>
       <c r="I48" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-3)</t>
+          <t>Terminal_Neu5Ac(a2-3)Gal(b1-3)</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.3596918346323709</v>
+        <v>0.2818474168534918</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1612004542360448</v>
+        <v>0.1700301784787457</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6741027715001147</v>
+        <v>0.6760270694286674</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H49" t="n">
-        <v>0.2150327279060625</v>
+        <v>0.2135237687792097</v>
       </c>
       <c r="I49" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-3)[Man(a1-6)]Man</t>
+          <t>Terminal_Gal(?1-?)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2850336643625651</v>
+        <v>1.87976641414346</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1584807689437548</v>
+        <v>-0.08762018473985123</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6738699366511494</v>
+        <v>0.6766748230581106</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2151148005868286</v>
+        <v>-0.2136477030345482</v>
       </c>
       <c r="I50" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-?)Gal(b1-?)</t>
+          <t>Terminal_Man(a1-3)Man(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.3993251156660302</v>
+        <v>0.07479231345780413</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2631738005329214</v>
+        <v>0.1745863867387129</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4598373729840548</v>
+        <v>0.6785719368549196</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H51" t="n">
-        <v>0.3804086836854532</v>
+        <v>0.2121699005835086</v>
       </c>
       <c r="I51" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-?)HexNAc(?1-?)GlcNAc</t>
+          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1052543261965677</v>
+        <v>1.840688160994939</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7507096928961448</v>
+        <v>-0.08522666327107409</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4481628363061638</v>
+        <v>0.6902007535193557</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H52" t="n">
-        <v>0.4005183269330503</v>
+        <v>-0.2041526824152429</v>
       </c>
       <c r="I52" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)</t>
+          <t>Terminal_Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>12.4871184590442</v>
+        <v>0.01009335981786078</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.1322486705451666</v>
+        <v>-0.1108061853480131</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4322145032209392</v>
+        <v>0.6984085226057977</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.4044542766429872</v>
+        <v>-0.1978432168817321</v>
       </c>
       <c r="I53" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Terminal_GlcNAc(b1-6)GalNAc</t>
+          <t>Terminal_Fuc(a1-?)[HexNAc(?1-?)]GalNAc</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.8708162544853052</v>
+        <v>0.007509464433393638</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.130037841041295</v>
+        <v>-0.07947921686432613</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4279161954182968</v>
+        <v>0.6998606585592444</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.4087647480120285</v>
+        <v>-0.1969122471280506</v>
       </c>
       <c r="I54" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-2)</t>
+          <t>Terminal_Fuc(a1-?)Gal(?1-?)</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>12.03793581698703</v>
+        <v>1.422653419986585</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.1337621484579188</v>
+        <v>-0.09312670467402295</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4258543223664711</v>
+        <v>0.7024178403018663</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.4102200403871532</v>
+        <v>-0.195087935078749</v>
       </c>
       <c r="I55" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-3)</t>
+          <t>Terminal_Gal(b1-4)GlcNAc(b1-3)Gal</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.4507803939441992</v>
+        <v>0.399929956635198</v>
       </c>
       <c r="C56" t="n">
-        <v>0.269653031295233</v>
+        <v>-0.09643105913762895</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4114342384506762</v>
+        <v>0.7103629485209939</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H56" t="n">
-        <v>0.4234226121598111</v>
+        <v>-0.1896235815627574</v>
       </c>
       <c r="I56" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-3)[GlcNAc(b1-6)]GalNAc</t>
+          <t>Terminal_Gal(b1-4)GlcNAc(b1-3)</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.2408221665280469</v>
+        <v>0.4100233164530589</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.1520566482114352</v>
+        <v>-0.09561179943467746</v>
       </c>
       <c r="D57" t="n">
-        <v>0.400719569951114</v>
+        <v>0.7118603764097557</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.4333587301323027</v>
+        <v>-0.188593894991724</v>
       </c>
       <c r="I57" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-3)GlcNAc(b1-3)Gal</t>
+          <t>Terminal_Fuc(a1-?)Gal(?1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.260552351270097</v>
+        <v>1.413208592728577</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.1953530047467309</v>
+        <v>-0.08957487684970467</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3998792757397212</v>
+        <v>0.7128687541646157</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.4357737826896366</v>
+        <v>-0.1878789060330966</v>
       </c>
       <c r="I58" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-3)</t>
+          <t>Terminal_Gal(a1-3)Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.2667435640926878</v>
+        <v>0.0793637361633602</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.1940589004498547</v>
+        <v>0.141663714947951</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3971520880103629</v>
+        <v>0.7261712908054969</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.4383237498789663</v>
+        <v>0.1787431256115547</v>
       </c>
       <c r="I59" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-?)[Fuc(a1-?)]GalNAc</t>
+          <t>Terminal_Fuc(a1-2)Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01647004043505235</v>
+        <v>2.270986889168356</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.140749303064585</v>
+        <v>-0.03868168491543766</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4628711855535446</v>
+        <v>0.7330539820056161</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.3778432876706846</v>
+        <v>-0.1740468954546244</v>
       </c>
       <c r="I60" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Gc(a2-?)Gal(?1-?)GlcNAc</t>
+          <t>Terminal_Neu5Ac(a2-3)Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1813015227936945</v>
+        <v>0.3228804948023433</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3975728337001199</v>
+        <v>0.1259689218718436</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3952587709277515</v>
+        <v>0.73320487002504</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H61" t="n">
-        <v>0.4385287017988963</v>
+        <v>0.1740742793693959</v>
       </c>
       <c r="I61" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)Gal(b1-?)</t>
+          <t>Terminal_Gal(b1-?)GlcNAc(b1-?)</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>10.58275630600303</v>
+        <v>1.941108460977836</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.1418140725614885</v>
+        <v>-0.06180897044211431</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3894110636405989</v>
+        <v>0.73693205105683</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.4443041588669569</v>
+        <v>-0.1719299125844066</v>
       </c>
       <c r="I62" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-2)Gal(b1-4)GlcNAc</t>
+          <t>Terminal_Gal(b1-3)</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>6.627535230644584</v>
+        <v>1.004676389712948</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.1578713695314375</v>
+        <v>-0.04664965437628243</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3843275232307045</v>
+        <v>0.7462032382526363</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.4491543914774538</v>
+        <v>-0.165385590833297</v>
       </c>
       <c r="I63" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)Gal(b1-?)GlcNAc</t>
+          <t>Terminal_GalOS(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>8.364016943760873</v>
+        <v>0.003327510403554749</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.1654734550178922</v>
+        <v>0.2280636621350967</v>
       </c>
       <c r="D64" t="n">
-        <v>0.37303591071107</v>
+        <v>0.7519550649893044</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.4602974474863876</v>
+        <v>0.1619855356243688</v>
       </c>
       <c r="I64" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(b1-4)GlcNAc(b1-3)Gal</t>
+          <t>Terminal_Fuc(a1-?)GlcNAc(b1-?)GalNAc</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.2078122192280069</v>
+        <v>0.06063308037819736</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.1732466450558725</v>
+        <v>0.2255145702517959</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3551750254305727</v>
+        <v>0.7576050891475725</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.4784209187609022</v>
+        <v>0.1573705752977264</v>
       </c>
       <c r="I65" t="n">
-        <v>0.7539052806483276</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-2)Gal(b1-3)GlcNAc</t>
+          <t>Terminal_Gal(b1-3)[GlcNAcOS(b1-6)]GalNAc</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.230941369191702</v>
+        <v>0.02111593785379854</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.3553839896305848</v>
+        <v>0.1362348662491581</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2252175643085216</v>
+        <v>0.762366044205002</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.6351229155682908</v>
+        <v>0.1543141060249422</v>
       </c>
       <c r="I66" t="n">
-        <v>0.8371705962315664</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Terminal_GalNAc(a1-?)Gal(b1-?)GlcNAc</t>
+          <t>Terminal_GlcNAc(a1-4)Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1991420145495348</v>
+        <v>0.5977713674630064</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.3261944659446669</v>
+        <v>-0.08839371822439057</v>
       </c>
       <c r="D67" t="n">
-        <v>0.2231480382679775</v>
+        <v>0.7639153771381602</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.6383703195604711</v>
+        <v>-0.1535068485785605</v>
       </c>
       <c r="I67" t="n">
-        <v>0.8371705962315664</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Terminal_GalNAc(a1-3)Gal(b1-3)GlcNAc</t>
+          <t>Terminal_Neu5Ac(a2-?)Gal(?1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1448054884302179</v>
+        <v>0.4805432773102968</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.3771539200456904</v>
+        <v>0.09984856919898633</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1789303319769322</v>
+        <v>0.7650761244965439</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H68" t="n">
-        <v>-0.7076696616255596</v>
+        <v>0.1532456262736619</v>
       </c>
       <c r="I68" t="n">
-        <v>0.863395653861769</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-6)GlcNAc</t>
+          <t>Terminal_Gal(b1-?)</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.06935394726021328</v>
+        <v>2.704598209187397</v>
       </c>
       <c r="C69" t="n">
-        <v>0.3360727677903694</v>
+        <v>-0.04843984716187499</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1609732445102335</v>
+        <v>0.7749845617527158</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H69" t="n">
-        <v>0.7464190093656403</v>
+        <v>-0.1462663668497462</v>
       </c>
       <c r="I69" t="n">
-        <v>0.8717036266318667</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-?)</t>
+          <t>Terminal_Fuc(a1-2)[Gal(a1-3)]Gal</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1.211201024983827</v>
+        <v>0.05521817091766638</v>
       </c>
       <c r="C70" t="n">
-        <v>0.2062857417965347</v>
+        <v>-0.1711188808586722</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1252707220801469</v>
+        <v>0.7765337925469451</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H70" t="n">
-        <v>0.816032593540569</v>
+        <v>-0.144926904274695</v>
       </c>
       <c r="I70" t="n">
-        <v>0.8901638276992084</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-3)GlcNAc(b1-6)GalNAc</t>
+          <t>Terminal_Gal(b1-?)GlcNAc(b1-?)Gal</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.006191212822590789</v>
+        <v>0.5464567861195369</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.1139504394751154</v>
+        <v>-0.07028132133666976</v>
       </c>
       <c r="D71" t="n">
-        <v>0.3943224054297458</v>
+        <v>0.778813454820759</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.4397394742110401</v>
+        <v>-0.143488233847533</v>
       </c>
       <c r="I71" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(?1-?)GlcNAc(b1-?)GalNAc</t>
+          <t>Terminal_Gal(b1-4)</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.09174117051980404</v>
+        <v>1.553394989990111</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.2028703332130691</v>
+        <v>-0.05127829269175432</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4673095966722459</v>
+        <v>0.7796482098507971</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.374240537720099</v>
+        <v>-0.1430930028676499</v>
       </c>
       <c r="I72" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Gc(a2-?)</t>
+          <t>Terminal_Gal(b1-4)GlcNAc(b1-6)GalNAc</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.379101591477732</v>
+        <v>1.143371673537052</v>
       </c>
       <c r="C73" t="n">
-        <v>0.3189924388641425</v>
+        <v>-0.05023404279107879</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4936141353465129</v>
+        <v>0.7859126378046093</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H73" t="n">
-        <v>0.3515838103647353</v>
+        <v>-0.1386693874635949</v>
       </c>
       <c r="I73" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-3)Gal(b1-4)GlcNAc</t>
+          <t>Terminal_Gal(b1-?)GlcNAc(b1-?)GalNAc</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.102191396807383</v>
+        <v>1.153465033354913</v>
       </c>
       <c r="C74" t="n">
-        <v>0.3953998104290163</v>
+        <v>-0.05006386143845276</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4999734185639984</v>
+        <v>0.7861117899620357</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H74" t="n">
-        <v>0.347497686021417</v>
+        <v>-0.1385446336106482</v>
       </c>
       <c r="I74" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Terminal_Gal(?1-?)</t>
+          <t>Terminal_HexNAc(b1-4)GlcNAc(b1-6)GalNAc</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1.880757258849788</v>
+        <v>0.1974135423342832</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.090112034109465</v>
+        <v>-0.05928183163805478</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6698901665149474</v>
+        <v>0.788708231392987</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H75" t="n">
-        <v>-0.218424108929416</v>
+        <v>-0.1365873459200197</v>
       </c>
       <c r="I75" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-?)Gal(b1-?)GlcNAc</t>
+          <t>Terminal_GalNAc(b1-?)[Fuc(a1-?)]GlcNAc</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.118092979879609</v>
+        <v>0.05443258275552539</v>
       </c>
       <c r="C76" t="n">
-        <v>0.198015083774973</v>
+        <v>0.2855736633145504</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6525331519793794</v>
+        <v>0.8068468763713171</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2326118822048314</v>
+        <v>0.1245976871710711</v>
       </c>
       <c r="I76" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Gc(a2-6)GalNAc</t>
+          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)Gal</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1250052968605367</v>
+        <v>0.8894741079798221</v>
       </c>
       <c r="C77" t="n">
-        <v>0.2190500995637075</v>
+        <v>-0.05854567477742822</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6478837614652608</v>
+        <v>0.8103260386416504</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2337506855961287</v>
+        <v>-0.1225617083447089</v>
       </c>
       <c r="I77" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)[Gal(?1-?)]GlcNAc</t>
+          <t>Terminal_Neu5Ac(a2-3)[GalNAc(b1-4)]Gal</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.009406612198952884</v>
+        <v>0.04103307794885153</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.5553348745656352</v>
+        <v>-0.06011296086231105</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6434514590923026</v>
+        <v>0.8132563346931595</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H78" t="n">
-        <v>-0.2365371242399121</v>
+        <v>-0.1204256064682555</v>
       </c>
       <c r="I78" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Gc(a2-3)Gal(b1-3)GalNAc</t>
+          <t>Terminal_GlcNAc(a1-?)Gal(b1-?)</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.07279477182350073</v>
+        <v>1.146300671307815</v>
       </c>
       <c r="C79" t="n">
-        <v>0.2380142516820034</v>
+        <v>-0.05668972686877627</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6398608152217413</v>
+        <v>0.8157470286530845</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H79" t="n">
-        <v>0.2393455555339502</v>
+        <v>-0.1190048563915999</v>
       </c>
       <c r="I79" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Terminal_GalNAc(a1-3)Gal(b1-4)GlcNAc</t>
+          <t>Terminal_Gal(?1-?)Gal(?1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.05433652611931685</v>
+        <v>0.02963342589051347</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.1558686025118654</v>
+        <v>0.04153473557969867</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6375712432747483</v>
+        <v>0.8274311594444536</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H80" t="n">
-        <v>-0.2417211420535881</v>
+        <v>0.1110667162306388</v>
       </c>
       <c r="I80" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-2)Man(a1-3)Man</t>
+          <t>Terminal_GlcNAc(a1-4)</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.2321206585052388</v>
+        <v>2.073652357521176</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1717753152150538</v>
+        <v>-0.0517214765470575</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6370720140144684</v>
+        <v>0.8467674118301149</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H81" t="n">
-        <v>0.2412858889956672</v>
+        <v>-0.09853429569255798</v>
       </c>
       <c r="I81" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-?)</t>
+          <t>Terminal_GlcNAc(a1-?)Gal(?1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1.165563500117815</v>
+        <v>0.9273516862133607</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1735201692626296</v>
+        <v>-0.06000297456319359</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6329081798327871</v>
+        <v>0.8485005420931573</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2443564887789278</v>
+        <v>-0.09730738070018441</v>
       </c>
       <c r="I82" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-?)Man(a1-?)Man</t>
+          <t>Terminal_GalNAc(b1-4)GlcNAc(b1-6)GalNAc</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1.090905329848009</v>
+        <v>0.8284140387893661</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1735837544941168</v>
+        <v>0.03558951567015978</v>
       </c>
       <c r="D83" t="n">
-        <v>0.6302336719176473</v>
+        <v>0.8555488438180263</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H83" t="n">
-        <v>0.2462630167145948</v>
+        <v>0.09285285730454959</v>
       </c>
       <c r="I83" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Terminal_Man(?1-?)</t>
+          <t>Terminal_GalNAc(b1-4)</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.2367398898066772</v>
+        <v>0.8694471167382176</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1728696629183033</v>
+        <v>0.03363331697923311</v>
       </c>
       <c r="D84" t="n">
-        <v>0.6296373160985309</v>
+        <v>0.8586031044104383</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H84" t="n">
-        <v>0.2465635743926646</v>
+        <v>0.09089232826587576</v>
       </c>
       <c r="I84" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-3)[Neu5Ac(a2-6)]GalNAc</t>
+          <t>Terminal_GalNAc(b1-4)GlcNAc(b1-6)</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.03264536328989978</v>
+        <v>0.7739814560338407</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.186693087659461</v>
+        <v>0.0274229708239595</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5885242152677865</v>
+        <v>0.886992621621235</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H85" t="n">
-        <v>-0.2768499418514577</v>
+        <v>0.07249432812658486</v>
       </c>
       <c r="I85" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-2)</t>
+          <t>Terminal_GlcNAc(a1-4)Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.5208380011228788</v>
+        <v>0.5485293038448087</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1902463511461496</v>
+        <v>-0.02584072416304073</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5814049375216916</v>
+        <v>0.8970621118912327</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H86" t="n">
-        <v>0.2823366515241894</v>
+        <v>-0.06590672584053801</v>
       </c>
       <c r="I86" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)GalNAc</t>
+          <t>Terminal_Neu5Ac(a2-6)GalNAc</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.02654668026438092</v>
+        <v>0.1773025069291013</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.1027915034986476</v>
+        <v>0.03901828968026444</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5797864587457069</v>
+        <v>0.9181060102302574</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H87" t="n">
-        <v>-0.2844934996402391</v>
+        <v>0.05241278367935158</v>
       </c>
       <c r="I87" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(b1-?)GlcNAc(b1-?)</t>
+          <t>Terminal_HexNAc(?1-?)Gal(b1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.4049101376551519</v>
+        <v>0.5647033760920399</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.1179861241129974</v>
+        <v>-0.01836662006462664</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5553033408001249</v>
+        <v>0.9282958088614737</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.3021807969095009</v>
+        <v>-0.04582356590774687</v>
       </c>
       <c r="I88" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)GlcNAc(b1-?)</t>
+          <t>Terminal_Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.3146450873153989</v>
+        <v>0.6895065282555766</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.1501235128214327</v>
+        <v>-0.01365193689083455</v>
       </c>
       <c r="D89" t="n">
-        <v>0.55036233743975</v>
+        <v>0.9311892356857172</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H89" t="n">
-        <v>-0.3061106368831139</v>
+        <v>-0.04407660851794664</v>
       </c>
       <c r="I89" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-2)Gal(b1-3)</t>
+          <t>Terminal_HexNAc(?1-?)Gal(b1-?)GalNAc</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2.443489518611266</v>
+        <v>0.5122212507227879</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.07574584222289626</v>
+        <v>-0.02334440704859375</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5498347967230892</v>
+        <v>0.9313120576943381</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.3065638962211985</v>
+        <v>-0.04388115840414324</v>
       </c>
       <c r="I90" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)GalNAc</t>
+          <t>Terminal_GlcNAcOS(b1-6)GalNAc</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.9102986408155482</v>
+        <v>0.03688753803514493</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.1162124464313017</v>
+        <v>0.03482456165713921</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5491386334097399</v>
+        <v>0.9341685585294852</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.3086912212744441</v>
+        <v>0.04210484340001388</v>
       </c>
       <c r="I91" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(?1-?)Gal(?1-?)GlcNAc</t>
+          <t>Terminal_HexNAc(?1-?)</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.02079967055500955</v>
+        <v>1.447604672911471</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.365167682111921</v>
+        <v>-0.01799002760937451</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5484470665166016</v>
+        <v>0.9343558767769856</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H92" t="n">
-        <v>-0.3084077504333801</v>
+        <v>-0.04197961051700091</v>
       </c>
       <c r="I92" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-2)Man(a1-2)Man</t>
+          <t>Terminal_HexNAc(?1-?)Gal(b1-?)</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.1852298402742668</v>
+        <v>1.076924626814828</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1983142131603617</v>
+        <v>-0.01900811854060969</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5479272007340177</v>
+        <v>0.9345401366722711</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H93" t="n">
-        <v>0.3079552082886232</v>
+        <v>-0.04181956362179367</v>
       </c>
       <c r="I93" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-2)Man(a1-6)Man</t>
+          <t>Terminal_Gal(a1-3)Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.1034875023433732</v>
+        <v>0.08818361570163062</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2162195837273013</v>
+        <v>-0.01859154938777652</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5149999957475686</v>
+        <v>0.9359225420256559</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H94" t="n">
-        <v>0.3341639693399666</v>
+        <v>-0.04092907949647017</v>
       </c>
       <c r="I94" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Terminal_GlcNAc(b1-?)</t>
+          <t>Terminal_Gal(a1-?)Gal(b1-?)</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.8875430386472347</v>
+        <v>0.1675473518649908</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.1058434480070982</v>
+        <v>0.01784640152502215</v>
       </c>
       <c r="D95" t="n">
-        <v>0.502351067322255</v>
+        <v>0.9417567781793285</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9649524046029978</v>
+        <v>0.9617941564384631</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.3449562570178648</v>
+        <v>0.03720810006167775</v>
       </c>
       <c r="I95" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.01549410730703482</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)Man</t>
+          <t>Terminal_Gal(b1-3)[Neu5Gc(a2-6)]GalNAc</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.04338830956077707</v>
+        <v>0.00366906430733619</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.003509513519689578</v>
+        <v>0.001633533859418446</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9868300338051901</v>
+        <v>0.9965788118026861</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9970008035034523</v>
+        <v>0.9982246244873254</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.008408441793220521</v>
+        <v>0.002185419697916174</v>
       </c>
       <c r="I96" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.001304491681348373</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-3)[Neu5Gc(a2-6)]GalNAc</t>
+          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)Man</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.003662705467423856</v>
+        <v>0.0434498852798754</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.001413555879260731</v>
+        <v>-0.0004624237810099199</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9970008035034523</v>
+        <v>0.9982246244873254</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9970008035034523</v>
+        <v>0.9982246244873254</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0.9998068257238286</v>
+        <v>0.9927192518277613</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.00191585409162272</v>
+        <v>-0.00113347057321729</v>
       </c>
       <c r="I97" t="n">
-        <v>0.749240021558649</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.001304491681348373</v>
+        <v>0.7499333631460808</v>
       </c>
     </row>
   </sheetData>

--- a/Python_output_files/Tables/differential_glycomics_treatment.xlsx
+++ b/Python_output_files/Tables/differential_glycomics_treatment.xlsx
@@ -483,2977 +483,2977 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Terminal_GlcNAc(b1-4)Man(b1-4)GlcNAc</t>
+          <t>Terminal_Fuc(a1-6)GlcNAc</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01667049906431307</v>
+        <v>0.06852026766537665</v>
       </c>
       <c r="C2" t="n">
-        <v>1.873845045285937</v>
+        <v>0.4514773850137441</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09549028283096628</v>
+        <v>0.05601230059071648</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9001625508739377</v>
+        <v>1.055004305035764</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9084063853256185</v>
+        <v>0.9453379954052544</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-?)</t>
+          <t>Terminal_HexNAc(?1-?)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.2013192295941</v>
+        <v>1.446511368937952</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2132301436573085</v>
+        <v>-0.04747901277582489</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1158810173302006</v>
+        <v>0.8175951788824908</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8386123829598201</v>
+        <v>-0.1178928458780038</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8982067774976727</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-6)GlcNAc</t>
+          <t>Terminal_GalNAc(b1-4)GlcNAc(b1-6)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06785390868357059</v>
+        <v>0.7732648564100901</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3576220121378543</v>
+        <v>0.04814964693563795</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1236865430398168</v>
+        <v>0.8097415135907722</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H4" t="n">
-        <v>0.829439890456912</v>
+        <v>0.1227945776687773</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8982067774976727</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Terminal_GalNAc(a1-3)Gal(b1-3)GlcNAc</t>
+          <t>Terminal_GalNAc(b1-?)[Fuc(a1-?)]GlcNAc</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1449945263150607</v>
+        <v>0.05412854144390893</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.3741068303070103</v>
+        <v>0.2952981226919779</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1777910544863525</v>
+        <v>0.7977569372239103</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.7096227523103654</v>
+        <v>0.1305954436265273</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8643212292202612</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Terminal_GalNAc(a1-?)Gal(b1-?)GlcNAc</t>
+          <t>Terminal_GalNAc(b1-4)GlcNAc(b1-6)GalNAc</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1994124224830299</v>
+        <v>0.827393397853999</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.3231473762059878</v>
+        <v>0.05282585467460699</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2214938142421878</v>
+        <v>0.7969440130273887</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.6408890950580147</v>
+        <v>0.1311912536491892</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8385471329256076</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-2)Gal(b1-3)GlcNAc</t>
+          <t>Terminal_GalNAc(b1-4)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2291152695101012</v>
+        <v>0.8684015936673771</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.3538486275468102</v>
+        <v>0.05192984610111928</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2237414271415214</v>
+        <v>0.7916013148205753</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.6372731543545773</v>
+        <v>0.1347743085609318</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8385471329256076</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(b1-4)GlcNAc(b1-3)Gal</t>
+          <t>Terminal_Fuc(a1-2)Gal(b1-3)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2081352898366924</v>
+        <v>2.442941668500163</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1701995553171924</v>
+        <v>-0.03542013548283762</v>
       </c>
       <c r="D8" t="n">
-        <v>0.357065026466472</v>
+        <v>0.7901222032868389</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.4764630164257233</v>
+        <v>-0.1356485614495383</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7525148387785402</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)Gal(b1-?)GlcNAc</t>
+          <t>Terminal_Fuc(a1-2)[Gal(a1-3)]Gal</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.366323055482047</v>
+        <v>0.05516986957216502</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.161993970829327</v>
+        <v>-0.1587452970029548</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3718997278941778</v>
+        <v>0.7872699970912121</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.4614417788015625</v>
+        <v>-0.1377173346868336</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7500773579132811</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-2)Gal(b1-4)GlcNAc</t>
+          <t>Terminal_Neu5Ac(a2-3)[GalNAc(b1-4)]Gal</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.629466141569768</v>
+        <v>0.04100819581337811</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1542735354716056</v>
+        <v>-0.07081632457256318</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3836759385627958</v>
+        <v>0.7872100421187573</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.4497958586948387</v>
+        <v>-0.1377125256408807</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)Gal(b1-?)</t>
+          <t>Terminal_HexNAc(?1-?)Gal(b1-?)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.58829227135541</v>
+        <v>1.076113342050959</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1385258131276466</v>
+        <v>-0.05713354696901529</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3876743316107133</v>
+        <v>0.7869885881763071</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.4460057186019515</v>
+        <v>-0.1380042388850084</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-3)GlcNAc(b1-6)GalNAc</t>
+          <t>Terminal_Gal(b1-3)[Neu5Ac(a2-6)]GalNAc</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.006200497622671983</v>
+        <v>0.03268446605054831</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1109033497364353</v>
+        <v>-0.08413135624271872</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3922656639647601</v>
+        <v>0.8176218037304668</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.441733078457406</v>
+        <v>-0.1175229309653831</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-3)</t>
+          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2649883416540424</v>
+        <v>1.84159481528998</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.190006001076866</v>
+        <v>-0.06024351558834695</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3962282056367828</v>
+        <v>0.7705086027322977</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.4391270656292688</v>
+        <v>-0.1493378592616626</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-3)GlcNAc(b1-3)Gal</t>
+          <t>Terminal_GalOS(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2587878440313705</v>
+        <v>0.003319717154866932</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1913884058360056</v>
+        <v>0.2168984653341299</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3988766671711685</v>
+        <v>0.7680387923183685</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.436640044454952</v>
+        <v>0.1511765607637383</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-3)[GlcNAc(b1-6)]GalNAc</t>
+          <t>Terminal_Fuc(a1-?)Gal(?1-?)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2411866415033868</v>
+        <v>1.432111900306305</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.149009558472756</v>
+        <v>-0.07225801052822334</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4048276502799619</v>
+        <v>0.756968403996491</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.4294978041506611</v>
+        <v>-0.1578170083302476</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-3)</t>
+          <t>Terminal_Gal(?1-?)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4516436615854726</v>
+        <v>1.880584399634791</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2715563433070067</v>
+        <v>-0.06427415072440912</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4143164052825494</v>
+        <v>0.7517859756805862</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4207610066735187</v>
+        <v>-0.1619521772500679</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Gc(a2-?)Gal(?1-?)GlcNAc</t>
+          <t>Terminal_Neu5Ac(a2-3)Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1813749244036417</v>
+        <v>0.3229344530579387</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3697638347253951</v>
+        <v>0.1271186150530412</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4205618217892325</v>
+        <v>0.7360095728118192</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4149442153249849</v>
+        <v>0.1722450782742258</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Terminal_GlcNAc(b1-6)GalNAc</t>
+          <t>Terminal_Gal(b1-3)[GlcNAcOS(b1-6)]GalNAc</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8664009571303972</v>
+        <v>0.02109965959215213</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1321021818809243</v>
+        <v>0.1524233205546353</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4215777054595594</v>
+        <v>0.7322536487828393</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.4145016608481403</v>
+        <v>0.1746660967711949</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-2)</t>
+          <t>Terminal_Fuc(a1-?)GlcNAc(b1-?)GalNAc</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>12.03501066098212</v>
+        <v>0.0603232752912183</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1305291446530781</v>
+        <v>0.2452859641838082</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4258599924839965</v>
+        <v>0.7319035875454042</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.4102380043605343</v>
+        <v>0.1747776887896431</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)</t>
+          <t>Terminal_Gal(b1-3)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>12.48133604214712</v>
+        <v>1.003861620462487</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1288790166470939</v>
+        <v>-0.04829507869544525</v>
       </c>
       <c r="D20" t="n">
-        <v>0.432780513027106</v>
+        <v>0.727585364968111</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.4039659457280985</v>
+        <v>-0.1783485006031622</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-?)HexNAc(?1-?)GlcNAc</t>
+          <t>Terminal_HexNAc(?1-?)Gal(b1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1023668192385151</v>
+        <v>0.5642635675600902</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7621245803338359</v>
+        <v>-0.06667321392653047</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4379948602361032</v>
+        <v>0.715329944304139</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4099850889227588</v>
+        <v>-0.1867163240271521</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-?)Gal(b1-?)</t>
+          <t>Terminal_Gal(a1-3)Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4000735481673354</v>
+        <v>0.07928338255841995</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2653628487113555</v>
+        <v>0.1555193909604623</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4615749993833939</v>
+        <v>0.6928845487670273</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3789086834689918</v>
+        <v>0.2017939146257994</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(?1-?)GlcNAc(b1-?)GalNAc</t>
+          <t>Terminal_Fuc(a1-?)Gal(?1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.09187445459613741</v>
+        <v>1.422724325244587</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1998232434743891</v>
+        <v>-0.06868594928177618</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4682390064049015</v>
+        <v>0.768358135888638</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.3734575770854086</v>
+        <v>-0.1501743812136702</v>
       </c>
       <c r="I23" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-?)[Fuc(a1-?)]GalNAc</t>
+          <t>Terminal_Neu5Ac(a2-?)Gal(?1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01649502016574012</v>
+        <v>0.4873473772170162</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.1377022133259054</v>
+        <v>0.1273681173235581</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4683425867015398</v>
+        <v>0.6922719858775903</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.373148898737501</v>
+        <v>0.203149342203395</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Terminal_GlcNAc(b1-?)</t>
+          <t>Terminal_Gal(b1-4)GlcNAc(b1-3)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8830714561947105</v>
+        <v>0.4067296441063378</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1079124959352429</v>
+        <v>-0.05679173855881947</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4944071602122446</v>
+        <v>0.8274634589771357</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.3514772705778881</v>
+        <v>-0.1110827342299481</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-3)Gal(b1-4)GlcNAc</t>
+          <t>Terminal_Fuc(a1-?)[HexNAc(?1-?)]GalNAc</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1023388578484255</v>
+        <v>0.007501971497519076</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3984469001676961</v>
+        <v>-0.04046426421348048</v>
       </c>
       <c r="D26" t="n">
-        <v>0.497532568136881</v>
+        <v>0.8315600481559615</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3494976711626018</v>
+        <v>-0.1083611910556382</v>
       </c>
       <c r="I26" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Gc(a2-?)</t>
+          <t>Terminal_GlcNAcOS(b1-6)GalNAc</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3795341879898377</v>
+        <v>0.03684965646830339</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3057984979281034</v>
+        <v>0.01632755479393799</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5095843787825591</v>
+        <v>0.9683653045231333</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H27" t="n">
-        <v>0.3385700455467439</v>
+        <v>0.0202073444043429</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-2)Man(a1-6)Man</t>
+          <t>Terminal_Fuc(a1-2)Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1036622388921339</v>
+        <v>2.266044588104501</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2192666734659809</v>
+        <v>0.005069730771960046</v>
       </c>
       <c r="D28" t="n">
-        <v>0.515131219479257</v>
+        <v>0.9670763738189518</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3340638624159585</v>
+        <v>0.02100998434288453</v>
       </c>
       <c r="I28" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-2)Man(a1-2)Man</t>
+          <t>Terminal_Gal(a1-3)Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1855440100145097</v>
+        <v>0.0885506325800947</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2013613028990417</v>
+        <v>-0.01786405659239554</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5476576144224861</v>
+        <v>0.9367789794392944</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H29" t="n">
-        <v>0.3081698104774596</v>
+        <v>-0.04037812480649156</v>
       </c>
       <c r="I29" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-2)Gal(b1-3)</t>
+          <t>Terminal_Gal(b1-?)GlcNAc(b1-?)Gal</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.444883987760791</v>
+        <v>0.5430745786421496</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.07313425101912152</v>
+        <v>-0.02136042937554983</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5508572198533788</v>
+        <v>0.9322649772931054</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.3057566751966744</v>
+        <v>-0.04334682011961478</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(?1-?)Gal(?1-?)GlcNAc</t>
+          <t>Terminal_GlcNAc(a1-?)Gal(?1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.02083421803543961</v>
+        <v>0.9267556719874177</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.3621205923732413</v>
+        <v>-0.03080705646439785</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5520510688724607</v>
+        <v>0.9216354875956583</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.3055912209292131</v>
+        <v>-0.05008430654592195</v>
       </c>
       <c r="I31" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)GalNAc</t>
+          <t>Terminal_GlcNAc(a1-4)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.9077641677352409</v>
+        <v>2.072419855382604</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.1142730288851341</v>
+        <v>-0.02814172570710127</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5540753907386302</v>
+        <v>0.9148103270842755</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.3048234986613206</v>
+        <v>-0.05453425107562695</v>
       </c>
       <c r="I32" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)GlcNAc(b1-?)</t>
+          <t>Terminal_Gal(a1-?)Gal(b1-?)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3132204267868958</v>
+        <v>0.1678340151385146</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.143534262775586</v>
+        <v>0.0250148157332617</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5580478379342126</v>
+        <v>0.9134855812702061</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.3001458334795904</v>
+        <v>0.05531390808541435</v>
       </c>
       <c r="I33" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(b1-?)GlcNAc(b1-?)</t>
+          <t>Terminal_Neu5Ac(a2-6)GalNAc</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.4055488321709756</v>
+        <v>0.1771874787109038</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.1149390343743182</v>
+        <v>0.05210317493798078</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5616287283774464</v>
+        <v>0.8961979564543561</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.2972946743927719</v>
+        <v>0.06656930741519412</v>
       </c>
       <c r="I34" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-2)</t>
+          <t>Terminal_GlcNAc(a1-4)Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.5217288762205934</v>
+        <v>0.5973951076892507</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1932934408848297</v>
+        <v>-0.04132414266529105</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5807918359096278</v>
+        <v>0.8875525694527537</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2828030392875958</v>
+        <v>-0.07217118838077613</v>
       </c>
       <c r="I35" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)GalNAc</t>
+          <t>Terminal_GlcNAc(a1-4)Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.02658837998360089</v>
+        <v>0.5482690757059361</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.09974441375996823</v>
+        <v>-0.04051831809555484</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5914824984071252</v>
+        <v>0.8290390221101072</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.2755761286690726</v>
+        <v>-0.1102206939220125</v>
       </c>
       <c r="I36" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-3)[Neu5Ac(a2-6)]GalNAc</t>
+          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)Man</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.03270319762710939</v>
+        <v>0.04340760867832369</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.1836459979207813</v>
+        <v>0.0293825274950175</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6004741206179229</v>
+        <v>0.876955746164545</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.2679277844115251</v>
+        <v>0.07884531108352207</v>
       </c>
       <c r="I37" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Terminal_Man(?1-?)</t>
+          <t>Terminal_GlcNAc(a1-?)Gal(b1-?)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2371469654918545</v>
+        <v>1.145664183395187</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1759167526569834</v>
+        <v>-0.03886251004322983</v>
       </c>
       <c r="D38" t="n">
-        <v>0.628328533331621</v>
+        <v>0.8696350646535049</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H38" t="n">
-        <v>0.247516705024683</v>
+        <v>-0.08384909942630403</v>
       </c>
       <c r="I38" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-?)Man(a1-?)Man</t>
+          <t>Terminal_Gal(b1-4)</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.092797822224585</v>
+        <v>1.549139450663086</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1766308442327968</v>
+        <v>-0.02962729268762665</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6291630603456194</v>
+        <v>0.8689181318851807</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H39" t="n">
-        <v>0.2470410958151227</v>
+        <v>-0.08441012717610143</v>
       </c>
       <c r="I39" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-?)</t>
+          <t>Terminal_Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.167590135682389</v>
+        <v>0.6889488503647508</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1765672590013097</v>
+        <v>-0.02813121262813656</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6318506346464079</v>
+        <v>0.8575788178785411</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2451228437202013</v>
+        <v>-0.09168556869894089</v>
       </c>
       <c r="I40" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-2)Man(a1-3)Man</t>
+          <t>Terminal_HexNAc(?1-?)Gal(b1-?)GalNAc</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2325226273139497</v>
+        <v>0.5118497744908691</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1748224049537335</v>
+        <v>-0.04998701153700535</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6358192631177868</v>
+        <v>0.8427334259261594</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2421920717324034</v>
+        <v>-0.1011432206808207</v>
       </c>
       <c r="I41" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Gc(a2-3)Gal(b1-3)GalNAc</t>
+          <t>Terminal_Gal(b1-4)GlcNAc(b1-6)GalNAc</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.07292680155331292</v>
+        <v>1.142409806556749</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2410613414206831</v>
+        <v>-0.03695824115856627</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6388960082565436</v>
+        <v>0.8376834613940417</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H42" t="n">
-        <v>0.2400415475713246</v>
+        <v>-0.10459981069574</v>
       </c>
       <c r="I42" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Terminal_GalNAc(a1-3)Gal(b1-4)GlcNAc</t>
+          <t>Terminal_Gal(b1-?)</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.05441789616796924</v>
+        <v>2.699431142439618</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.1528215127731858</v>
+        <v>-0.03413321230760413</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6406663867503366</v>
+        <v>0.8376043966524261</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.2394876675310494</v>
+        <v>-0.1048769068681049</v>
       </c>
       <c r="I43" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-?)Gal(b1-?)GlcNAc</t>
+          <t>Terminal_Gal(b1-4)GlcNAc(b1-3)Gal</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.1182261313138436</v>
+        <v>0.3966445073281057</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2023177160993588</v>
+        <v>-0.05404634631988969</v>
       </c>
       <c r="D44" t="n">
-        <v>0.645944802046569</v>
+        <v>0.8359458235108341</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H44" t="n">
-        <v>0.2373704378669758</v>
+        <v>-0.1055325576249198</v>
       </c>
       <c r="I44" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Gc(a2-6)GalNAc</t>
+          <t>Terminal_Gal(b1-?)GlcNAc(b1-?)GalNAc</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.1252324620328831</v>
+        <v>1.152494943334981</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2220971893023869</v>
+        <v>-0.03747340521035536</v>
       </c>
       <c r="D45" t="n">
-        <v>0.646916213923195</v>
+        <v>0.8349538503388522</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H45" t="n">
-        <v>0.2344427986760372</v>
+        <v>-0.1063976742007818</v>
       </c>
       <c r="I45" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)[Gal(?1-?)]GlcNAc</t>
+          <t>Terminal_Gal(b1-?)GlcNAc(b1-?)</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.00944482725800827</v>
+        <v>1.93655116585947</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.5446661883016284</v>
+        <v>-0.03775899845176767</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6496277450831305</v>
+        <v>0.8344743131125135</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.2321091528858256</v>
+        <v>-0.1068929627049501</v>
       </c>
       <c r="I46" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-3)[Man(a1-6)]Man</t>
+          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)Gal</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2855344730019958</v>
+        <v>0.888793967873342</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1615278586824349</v>
+        <v>-0.03836499040494967</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6723454498388953</v>
+        <v>0.8756953458089392</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H47" t="n">
-        <v>0.2161879520029171</v>
+        <v>-0.07980616713737973</v>
       </c>
       <c r="I47" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-3)</t>
+          <t>Terminal_Neu5Gc(a2-6)GalNAc</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.3603267864597999</v>
+        <v>0.1251555620649452</v>
       </c>
       <c r="C48" t="n">
-        <v>0.164247543974724</v>
+        <v>0.2026151228853437</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6726747279513914</v>
+        <v>0.679963870648129</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2160359743881113</v>
+        <v>0.2110272939608532</v>
       </c>
       <c r="I48" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-3)Gal(b1-3)</t>
+          <t>Terminal_Fuc(a1-?)GlcNAc(b1-?)</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2818474168534918</v>
+        <v>0.3118446472916279</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1700301784787457</v>
+        <v>-0.09884960053471703</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6760270694286674</v>
+        <v>0.6762284808351526</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H49" t="n">
-        <v>0.2135237687792097</v>
+        <v>-0.2133508933421163</v>
       </c>
       <c r="I49" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Terminal_Gal(?1-?)</t>
+          <t>Terminal_Man(a1-3)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.87976641414346</v>
+        <v>0.3600982294600081</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.08762018473985123</v>
+        <v>0.1659683522904931</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6766748230581106</v>
+        <v>0.6719639132753311</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.2136477030345482</v>
+        <v>0.2165776477179991</v>
       </c>
       <c r="I50" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-3)Man(b1-4)GlcNAc</t>
+          <t>Terminal_GlcNAc(b1-?)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.07479231345780413</v>
+        <v>0.8892759881712685</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1745863867387129</v>
+        <v>-0.1120268994527924</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6785719368549196</v>
+        <v>0.457617004886513</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2121699005835086</v>
+        <v>-0.3835397365879027</v>
       </c>
       <c r="I51" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)</t>
+          <t>Terminal_Neu5Ac(a2-?)Gal(b1-?)</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1.840688160994939</v>
+        <v>0.3999640259617415</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.08522666327107409</v>
+        <v>0.2769538826745963</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6902007535193557</v>
+        <v>0.4517367807836172</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.2041526824152429</v>
+        <v>0.3876658198781552</v>
       </c>
       <c r="I52" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
+          <t>Terminal_Gal(b1-3)[GlcNAc(b1-6)]GalNAc</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01009335981786078</v>
+        <v>0.2409816438823391</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.1108061853480131</v>
+        <v>-0.1228227926996972</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6984085226057977</v>
+        <v>0.4479990584243703</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.1978432168817321</v>
+        <v>-0.3906969354645449</v>
       </c>
       <c r="I53" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)[HexNAc(?1-?)]GalNAc</t>
+          <t>Terminal_Neu5Ac(a2-3)Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.007509464433393638</v>
+        <v>0.1022133311306594</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.07947921686432613</v>
+        <v>0.4520387655396718</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6998606585592444</v>
+        <v>0.4311443538804324</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.1969122471280506</v>
+        <v>0.4066733713809902</v>
       </c>
       <c r="I54" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)Gal(?1-?)</t>
+          <t>Terminal_Man(a1-2)Man(a1-2)Man</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1.422653419986585</v>
+        <v>0.1854064896034594</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.09312670467402295</v>
+        <v>0.2681439921056432</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7024178403018663</v>
+        <v>0.4303280367386582</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.195087935078749</v>
+        <v>0.4062239777562076</v>
       </c>
       <c r="I55" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-4)GlcNAc(b1-3)Gal</t>
+          <t>Terminal_Fuc(a1-?)Gal(b1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.399929956635198</v>
+        <v>8.365621881371581</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.09643105913762895</v>
+        <v>-0.1476253202809383</v>
       </c>
       <c r="D56" t="n">
-        <v>0.7103629485209939</v>
+        <v>0.4180616623354633</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.1896235815627574</v>
+        <v>-0.4173816051251076</v>
       </c>
       <c r="I56" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-4)GlcNAc(b1-3)</t>
+          <t>Terminal_Neu5Ac(a2-3)</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.4100233164530589</v>
+        <v>0.4515397509504251</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.09561179943467746</v>
+        <v>0.2777087344625166</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7118603764097557</v>
+        <v>0.4133477724872002</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.188593894991724</v>
+        <v>0.4217942011499805</v>
       </c>
       <c r="I57" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)Gal(?1-?)GlcNAc</t>
+          <t>Terminal_Fuc(a1-2)Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1.413208592728577</v>
+        <v>6.627233653242039</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.08957487684970467</v>
+        <v>-0.1499153152594852</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7128687541646157</v>
+        <v>0.3972797503524447</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.1878789060330966</v>
+        <v>-0.4367095636080391</v>
       </c>
       <c r="I58" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Terminal_Gal(a1-3)Gal(b1-3)GalNAc</t>
+          <t>Terminal_Neu5Ac(a2-?)HexNAc(?1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.0793637361633602</v>
+        <v>0.1037970177788806</v>
       </c>
       <c r="C59" t="n">
-        <v>0.141663714947951</v>
+        <v>0.8752492064854076</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7261712908054969</v>
+        <v>0.3797717201477225</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1787431256115547</v>
+        <v>0.4668474081089272</v>
       </c>
       <c r="I59" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-2)Gal(b1-3)GalNAc</t>
+          <t>Terminal_Neu5Gc(a2-?)Gal(?1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2.270986889168356</v>
+        <v>0.1811090234088367</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.03868168491543766</v>
+        <v>0.3387770967733217</v>
       </c>
       <c r="D60" t="n">
-        <v>0.7330539820056161</v>
+        <v>0.46166209439013</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.1740468954546244</v>
+        <v>0.3784810293236582</v>
       </c>
       <c r="I60" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-3)Gal(b1-3)GalNAc</t>
+          <t>Terminal_GlcNAc(b1-6)GalNAc</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.3228804948023433</v>
+        <v>0.8726542293953321</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1259689218718436</v>
+        <v>-0.1372777281299546</v>
       </c>
       <c r="D61" t="n">
-        <v>0.73320487002504</v>
+        <v>0.3784445449690746</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H61" t="n">
-        <v>0.1740742793693959</v>
+        <v>-0.4563971965925503</v>
       </c>
       <c r="I61" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-?)GlcNAc(b1-?)</t>
+          <t>Terminal_Man(a1-2)Man(a1-6)Man</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1.941108460977836</v>
+        <v>0.103586177269806</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.06180897044211431</v>
+        <v>0.3019964335288284</v>
       </c>
       <c r="D62" t="n">
-        <v>0.73693205105683</v>
+        <v>0.3625896215700677</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.1719299125844066</v>
+        <v>0.4707440835668878</v>
       </c>
       <c r="I62" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-3)</t>
+          <t>Terminal_Fuc(a1-?)GalNAc</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1.004676389712948</v>
+        <v>0.02656575744597818</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.04664965437628243</v>
+        <v>-0.1737068951196729</v>
       </c>
       <c r="D63" t="n">
-        <v>0.7462032382526363</v>
+        <v>0.3601573847361158</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.165385590833297</v>
+        <v>-0.4750612069298976</v>
       </c>
       <c r="I63" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Terminal_GalOS(b1-3)GalNAc</t>
+          <t>Terminal_Gal(b1-?)[Fuc(a1-?)]GalNAc</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.003327510403554749</v>
+        <v>0.01648062066774603</v>
       </c>
       <c r="C64" t="n">
-        <v>0.2280636621350967</v>
+        <v>-0.197808343724406</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7519550649893044</v>
+        <v>0.2879412928994756</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1619855356243688</v>
+        <v>-0.5541461074275469</v>
       </c>
       <c r="I64" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.8141719171163029</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)GlcNAc(b1-?)GalNAc</t>
+          <t>Terminal_HexNAc(b1-4)GlcNAc(b1-3)Gal</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.06063308037819736</v>
+        <v>0.2079363222881456</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2255145702517959</v>
+        <v>-0.2014904097129144</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7576050891475725</v>
+        <v>0.2737436044146291</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H65" t="n">
-        <v>0.1573705752977264</v>
+        <v>-0.5698612018773431</v>
       </c>
       <c r="I65" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.8150980055127995</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-3)[GlcNAcOS(b1-6)]GalNAc</t>
+          <t>Terminal_Fuc(a1-2)Gal(b1-3)GlcNAc</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.02111593785379854</v>
+        <v>0.2320669499678273</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1362348662491581</v>
+        <v>-0.3823256475250396</v>
       </c>
       <c r="D66" t="n">
-        <v>0.762366044205002</v>
+        <v>0.1925011513518951</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H66" t="n">
-        <v>0.1543141060249422</v>
+        <v>-0.6854137583292229</v>
       </c>
       <c r="I66" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.8713270028522112</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Terminal_GlcNAc(a1-4)Gal(b1-4)GlcNAc</t>
+          <t>Terminal_GalNAc(a1-?)Gal(b1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.5977713674630064</v>
+        <v>0.1992393207953743</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.08839371822439057</v>
+        <v>-0.3921223492941144</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7639153771381602</v>
+        <v>0.1386587843303694</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.1535068485785605</v>
+        <v>-0.7864448144469643</v>
       </c>
       <c r="I67" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.9066895636571359</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-?)Gal(?1-?)GlcNAc</t>
+          <t>Terminal_Neu5Ac(a2-?)</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.4805432773102968</v>
+        <v>1.20930409548192</v>
       </c>
       <c r="C68" t="n">
-        <v>0.09984856919898633</v>
+        <v>0.2382136145062121</v>
       </c>
       <c r="D68" t="n">
-        <v>0.7650761244965439</v>
+        <v>0.1198969498572917</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H68" t="n">
-        <v>0.1532456262736619</v>
+        <v>0.8313266203465717</v>
       </c>
       <c r="I68" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.9066895636571359</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-?)</t>
+          <t>Terminal_GalNAc(a1-3)Gal(b1-3)GlcNAc</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2.704598209187397</v>
+        <v>0.1448708549995666</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.04843984716187499</v>
+        <v>-0.4402988160696735</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7749845617527158</v>
+        <v>0.1170132746350125</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H69" t="n">
-        <v>-0.1462663668497462</v>
+        <v>-0.8355610781356668</v>
       </c>
       <c r="I69" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.9066895636571359</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-2)[Gal(a1-3)]Gal</t>
+          <t>Terminal_GlcNAc(b1-4)Man(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.05521817091766638</v>
+        <v>0.01662175877593633</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.1711188808586722</v>
+        <v>1.883458137347735</v>
       </c>
       <c r="D70" t="n">
-        <v>0.7765337925469451</v>
+        <v>0.09797155887218129</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H70" t="n">
-        <v>-0.144926904274695</v>
+        <v>0.8920584192495193</v>
       </c>
       <c r="I70" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.9155413901200415</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-?)GlcNAc(b1-?)Gal</t>
+          <t>Terminal_HexNAc(b1-?)GlcNAc(b1-?)</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.5464567861195369</v>
+        <v>0.4051671431266344</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.07028132133666976</v>
+        <v>-0.1766922271399243</v>
       </c>
       <c r="D71" t="n">
-        <v>0.778813454820759</v>
+        <v>0.3657157404558364</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.143488233847533</v>
+        <v>-0.4674208408585839</v>
       </c>
       <c r="I71" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-4)</t>
+          <t>Terminal_Fuc(a1-?)Gal(b1-?)</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1.553394989990111</v>
+        <v>10.58269133375123</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.05127829269175432</v>
+        <v>-0.1183207316080521</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7796482098507971</v>
+        <v>0.4703830107779797</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.1430930028676499</v>
+        <v>-0.3711940158264063</v>
       </c>
       <c r="I72" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-4)GlcNAc(b1-6)GalNAc</t>
+          <t>Terminal_Man(a1-2)</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1.143371673537052</v>
+        <v>0.5213580815853134</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.05023404279107879</v>
+        <v>0.2489629197859453</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7859126378046093</v>
+        <v>0.4764619858445898</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H73" t="n">
-        <v>-0.1386693874635949</v>
+        <v>0.3660059491882396</v>
       </c>
       <c r="I73" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-?)GlcNAc(b1-?)GalNAc</t>
+          <t>Terminal_GalNAc(a1-3)Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1.153465033354913</v>
+        <v>0.05436846579580781</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.05006386143845276</v>
+        <v>-0.2206943555103785</v>
       </c>
       <c r="D74" t="n">
-        <v>0.7861117899620357</v>
+        <v>0.4825202261014437</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H74" t="n">
-        <v>-0.1385446336106482</v>
+        <v>-0.3620503333668164</v>
       </c>
       <c r="I74" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(b1-4)GlcNAc(b1-6)GalNAc</t>
+          <t>Terminal_Man(a1-3)[Man(a1-6)]Man</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1974135423342832</v>
+        <v>0.2853488896179517</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.05928183163805478</v>
+        <v>0.1643628099383982</v>
       </c>
       <c r="D75" t="n">
-        <v>0.788708231392987</v>
+        <v>0.6718392511407667</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H75" t="n">
-        <v>-0.1365873459200197</v>
+        <v>0.2166048723537162</v>
       </c>
       <c r="I75" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Terminal_GalNAc(b1-?)[Fuc(a1-?)]GlcNAc</t>
+          <t>Terminal_Man(a1-3)Man(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.05443258275552539</v>
+        <v>0.07474933984205642</v>
       </c>
       <c r="C76" t="n">
-        <v>0.2855736633145504</v>
+        <v>0.1767414964910274</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8068468763713171</v>
+        <v>0.6679983224687076</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H76" t="n">
-        <v>0.1245976871710711</v>
+        <v>0.2195673212429546</v>
       </c>
       <c r="I76" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)Gal</t>
+          <t>Terminal_Neu5Ac(a2-3)Gal(b1-3)</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.8894741079798221</v>
+        <v>0.2819262572445606</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.05854567477742822</v>
+        <v>0.1769130286202367</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8103260386416504</v>
+        <v>0.6674309019460498</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H77" t="n">
-        <v>-0.1225617083447089</v>
+        <v>0.2196473744324078</v>
       </c>
       <c r="I77" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-3)[GalNAc(b1-4)]Gal</t>
+          <t>Terminal_Fuc(a1-?)[Gal(?1-?)]GlcNAc</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.04103307794885153</v>
+        <v>0.009387575061717831</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.06011296086231105</v>
+        <v>-0.5257542497557455</v>
       </c>
       <c r="D78" t="n">
-        <v>0.8132563346931595</v>
+        <v>0.6568778262423693</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H78" t="n">
-        <v>-0.1204256064682555</v>
+        <v>-0.2269389072817712</v>
       </c>
       <c r="I78" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Terminal_GlcNAc(a1-?)Gal(b1-?)</t>
+          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)GalNAc</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1.146300671307815</v>
+        <v>0.909393238738315</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.05668972686877627</v>
+        <v>-0.08763195437259785</v>
       </c>
       <c r="D79" t="n">
-        <v>0.8157470286530845</v>
+        <v>0.6249975692443221</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H79" t="n">
-        <v>-0.1190048563915999</v>
+        <v>-0.252210102586452</v>
       </c>
       <c r="I79" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Terminal_Gal(?1-?)Gal(?1-?)GlcNAc</t>
+          <t>Terminal_Neu5Gc(a2-3)Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.02963342589051347</v>
+        <v>0.07288017638776206</v>
       </c>
       <c r="C80" t="n">
-        <v>0.04153473557969867</v>
+        <v>0.260254644978143</v>
       </c>
       <c r="D80" t="n">
-        <v>0.8274311594444536</v>
+        <v>0.6096936236548909</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H80" t="n">
-        <v>0.1110667162306388</v>
+        <v>0.2613314384383109</v>
       </c>
       <c r="I80" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Terminal_GlcNAc(a1-4)</t>
+          <t>Terminal_Man(a1-?)</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2.073652357521176</v>
+        <v>1.166805200663273</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.0517214765470575</v>
+        <v>0.2043260585622431</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8467674118301149</v>
+        <v>0.580852205179893</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H81" t="n">
-        <v>-0.09853429569255798</v>
+        <v>0.2829113228887062</v>
       </c>
       <c r="I81" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Terminal_GlcNAc(a1-?)Gal(?1-?)GlcNAc</t>
+          <t>Terminal_Man(a1-?)Man(a1-?)Man</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.9273516862133607</v>
+        <v>1.092055860821217</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.06000297456319359</v>
+        <v>0.2064426938868573</v>
       </c>
       <c r="D82" t="n">
-        <v>0.8485005420931573</v>
+        <v>0.5748116397858457</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H82" t="n">
-        <v>-0.09730738070018441</v>
+        <v>0.287458578772639</v>
       </c>
       <c r="I82" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Terminal_GalNAc(b1-4)GlcNAc(b1-6)GalNAc</t>
+          <t>Terminal_Neu5Ac(a2-?)Gal(b1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.8284140387893661</v>
+        <v>0.1180377687171809</v>
       </c>
       <c r="C83" t="n">
-        <v>0.03558951567015978</v>
+        <v>0.2414136356613585</v>
       </c>
       <c r="D83" t="n">
-        <v>0.8555488438180263</v>
+        <v>0.5744758006336336</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H83" t="n">
-        <v>0.09285285730454959</v>
+        <v>0.2908322789697359</v>
       </c>
       <c r="I83" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Terminal_GalNAc(b1-4)</t>
+          <t>Terminal_Man(a1-2)Man(a1-3)Man</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.8694471167382176</v>
+        <v>0.2323654147120479</v>
       </c>
       <c r="C84" t="n">
-        <v>0.03363331697923311</v>
+        <v>0.2074140469603281</v>
       </c>
       <c r="D84" t="n">
-        <v>0.8586031044104383</v>
+        <v>0.5726424503776526</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H84" t="n">
-        <v>0.09089232826587576</v>
+        <v>0.2890375447017298</v>
       </c>
       <c r="I84" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Terminal_GalNAc(b1-4)GlcNAc(b1-6)</t>
+          <t>Terminal_Neu5Gc(a2-?)</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.7739814560338407</v>
+        <v>0.379144761861544</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0274229708239595</v>
+        <v>0.2853033926635926</v>
       </c>
       <c r="D85" t="n">
-        <v>0.886992621621235</v>
+        <v>0.5420103443984825</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H85" t="n">
-        <v>0.07249432812658486</v>
+        <v>0.3127164474188762</v>
       </c>
       <c r="I85" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Terminal_GlcNAc(a1-4)Gal(b1-3)GalNAc</t>
+          <t>Terminal_Fuc(a1-3)GlcNAc(b1-6)GalNAc</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.5485293038448087</v>
+        <v>0.006194733847309356</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.02584072416304073</v>
+        <v>-0.07531130814778608</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8970621118912327</v>
+        <v>0.5362657154876254</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H86" t="n">
-        <v>-0.06590672584053801</v>
+        <v>-0.3170400281053729</v>
       </c>
       <c r="I86" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-6)GalNAc</t>
+          <t>Terminal_Man(?1-?)</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.1773025069291013</v>
+        <v>0.2369731521881903</v>
       </c>
       <c r="C87" t="n">
-        <v>0.03901828968026444</v>
+        <v>0.2434065156347778</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9181060102302574</v>
+        <v>0.5220878785587532</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H87" t="n">
-        <v>0.05241278367935158</v>
+        <v>0.3285509301767279</v>
       </c>
       <c r="I87" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(?1-?)Gal(b1-?)GlcNAc</t>
+          <t>Terminal_Fuc(a1-3)GlcNAc(b1-3)Gal</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.5647033760920399</v>
+        <v>0.257716105847719</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.01836662006462664</v>
+        <v>-0.1368315584773638</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9282958088614737</v>
+        <v>0.5202188321548176</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.04582356590774687</v>
+        <v>-0.3313466077116546</v>
       </c>
       <c r="I88" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-3)GalNAc</t>
+          <t>Terminal_Fuc(a1-3)</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.6895065282555766</v>
+        <v>0.2639108396950283</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.01365193689083455</v>
+        <v>-0.1354607601023092</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9311892356857172</v>
+        <v>0.5181476249366481</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H89" t="n">
-        <v>-0.04407660851794664</v>
+        <v>-0.3330353791462939</v>
       </c>
       <c r="I89" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(?1-?)Gal(b1-?)GalNAc</t>
+          <t>Terminal_Fuc(a1-?)</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.5122212507227879</v>
+        <v>12.4844057475302</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.02334440704859375</v>
+        <v>-0.1084458532006956</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9313120576943381</v>
+        <v>0.5143430854710849</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.04388115840414324</v>
+        <v>-0.3346453393520645</v>
       </c>
       <c r="I90" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Terminal_GlcNAcOS(b1-6)GalNAc</t>
+          <t>Terminal_Fuc(a1-2)</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.03688753803514493</v>
+        <v>12.03883703044756</v>
       </c>
       <c r="C91" t="n">
-        <v>0.03482456165713921</v>
+        <v>-0.1110163494638794</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9341685585294852</v>
+        <v>0.5039611078660708</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H91" t="n">
-        <v>0.04210484340001388</v>
+        <v>-0.3431055592075951</v>
       </c>
       <c r="I91" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(?1-?)</t>
+          <t>Terminal_HexNAc(?1-?)Gal(?1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1.447604672911471</v>
+        <v>0.02080387252339642</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.01799002760937451</v>
+        <v>-0.4041947660586165</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9343558767769856</v>
+        <v>0.4932715609791352</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H92" t="n">
-        <v>-0.04197961051700091</v>
+        <v>-0.3526287906927975</v>
       </c>
       <c r="I92" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(?1-?)Gal(b1-?)</t>
+          <t>Terminal_Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1.076924626814828</v>
+        <v>0.01008513677823215</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.01900811854060969</v>
+        <v>-0.1959693435218739</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9345401366722711</v>
+        <v>0.4862842581595316</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H93" t="n">
-        <v>-0.04181956362179367</v>
+        <v>-0.3576607410335179</v>
       </c>
       <c r="I93" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Terminal_Gal(a1-3)Gal(b1-4)GlcNAc</t>
+          <t>Terminal_HexNAc(?1-?)GlcNAc(b1-?)GalNAc</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.08818361570163062</v>
+        <v>0.09179359344999506</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.01859154938777652</v>
+        <v>-0.2156873081158777</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9359225420256559</v>
+        <v>0.4860712672242994</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.04092907949647017</v>
+        <v>-0.359320897046687</v>
       </c>
       <c r="I94" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Terminal_Gal(a1-?)Gal(b1-?)</t>
+          <t>Terminal_HexNAc(b1-4)GlcNAc(b1-6)GalNAc</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.1675473518649908</v>
+        <v>0.1972308208384888</v>
       </c>
       <c r="C95" t="n">
-        <v>0.01784640152502215</v>
+        <v>-0.1512414096981183</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9417567781793285</v>
+        <v>0.4844710976242802</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9617941564384631</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H95" t="n">
-        <v>0.03720810006167775</v>
+        <v>-0.3590994913442678</v>
       </c>
       <c r="I95" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-3)[Neu5Gc(a2-6)]GalNAc</t>
+          <t>Terminal_Gal(?1-?)Gal(?1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.00366906430733619</v>
+        <v>0.02960200928309273</v>
       </c>
       <c r="C96" t="n">
-        <v>0.001633533859418446</v>
+        <v>-0.007461448711280627</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9965788118026861</v>
+        <v>0.9691887086113727</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9982246244873254</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H96" t="n">
-        <v>0.002185419697916174</v>
+        <v>-0.01966199881060691</v>
       </c>
       <c r="I96" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)Man</t>
+          <t>Terminal_Gal(b1-3)[Neu5Gc(a2-6)]GalNAc</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.0434498852798754</v>
+        <v>0.003666379904950437</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.0004624237810099199</v>
+        <v>0.01053980993455017</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9982246244873254</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9982246244873254</v>
+        <v>0.9764490954358072</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0.9927192518277613</v>
+        <v>0.9960803033370339</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.00113347057321729</v>
+        <v>0.01503501506460475</v>
       </c>
       <c r="I97" t="n">
-        <v>0.7499333631460808</v>
+        <v>0.7685973150986142</v>
       </c>
     </row>
   </sheetData>

--- a/Python_output_files/Tables/differential_glycomics_treatment.xlsx
+++ b/Python_output_files/Tables/differential_glycomics_treatment.xlsx
@@ -487,431 +487,431 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06852026766537665</v>
+        <v>0.06863607292270178</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4514773850137441</v>
+        <v>0.3890114290531609</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05601230059071648</v>
+        <v>0.1071502133436517</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H2" t="n">
-        <v>1.055004305035764</v>
+        <v>0.8712291355814008</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9453379954052544</v>
+        <v>0.8995941947298327</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(?1-?)</t>
+          <t>Terminal_Gal(b1-4)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.446511368937952</v>
+        <v>1.549611507204362</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.04747901277582489</v>
+        <v>-0.0466814867568317</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8175951788824908</v>
+        <v>0.7998708684860747</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.1178928458780038</v>
+        <v>-0.1295511278962951</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Terminal_GalNAc(b1-4)GlcNAc(b1-6)</t>
+          <t>Terminal_Gal(b1-3)[Neu5Ac(a2-6)]GalNAc</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7732648564100901</v>
+        <v>0.03273224955899039</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04814964693563795</v>
+        <v>-0.09614590549737034</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8097415135907722</v>
+        <v>0.7952365629963249</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1227945776687773</v>
+        <v>-0.1322887651533535</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Terminal_GalNAc(b1-?)[Fuc(a1-?)]GlcNAc</t>
+          <t>Terminal_Gal(b1-4)GlcNAc(b1-6)GalNAc</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05412854144390893</v>
+        <v>1.14256659279453</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2952981226919779</v>
+        <v>-0.04947008101508477</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7977569372239103</v>
+        <v>0.7858270393165164</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1305954436265273</v>
+        <v>-0.1387351020375023</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Terminal_GalNAc(b1-4)GlcNAc(b1-6)GalNAc</t>
+          <t>Terminal_GalNAc(b1-?)[Fuc(a1-?)]GlcNAc</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.827393397853999</v>
+        <v>0.05403335234106112</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05282585467460699</v>
+        <v>0.3142941225748724</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7969440130273887</v>
+        <v>0.7854317593095044</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1311912536491892</v>
+        <v>0.1387699852826424</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Terminal_GalNAc(b1-4)</t>
+          <t>Terminal_Gal(b1-?)GlcNAc(b1-?)GalNAc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8684015936673771</v>
+        <v>1.152657136636658</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05192984610111928</v>
+        <v>-0.05008450993278935</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7916013148205753</v>
+        <v>0.7828846037628966</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1347743085609318</v>
+        <v>-0.1407008159451388</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-2)Gal(b1-3)</t>
+          <t>Terminal_Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.442941668500163</v>
+        <v>0.6889238675897382</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.03542013548283762</v>
+        <v>-0.04776283511623847</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7901222032868389</v>
+        <v>0.7646741885012747</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.1356485614495383</v>
+        <v>-0.1529338342039149</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-2)[Gal(a1-3)]Gal</t>
+          <t>Terminal_Man(a1-3)Man(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05516986957216502</v>
+        <v>0.07487494669113423</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1587452970029548</v>
+        <v>0.1352917703169962</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7872699970912121</v>
+        <v>0.7475755443231225</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1377173346868336</v>
+        <v>0.1644943579402825</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-3)[GalNAc(b1-4)]Gal</t>
+          <t>Terminal_GlcNAc(a1-?)Gal(b1-?)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04100819581337811</v>
+        <v>1.145727515649603</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.07081632457256318</v>
+        <v>-0.07846118078104691</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7872100421187573</v>
+        <v>0.7475540918830348</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.1377125256408807</v>
+        <v>-0.1645085736453567</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(?1-?)Gal(b1-?)</t>
+          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.076113342050959</v>
+        <v>1.83707137499205</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.05713354696901529</v>
+        <v>-0.07133116456778144</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7869885881763071</v>
+        <v>0.7411712980559878</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.1380042388850084</v>
+        <v>-0.1688315459534023</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-3)[Neu5Ac(a2-6)]GalNAc</t>
+          <t>Terminal_Gal(b1-4)GlcNAc(b1-3)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03268446605054831</v>
+        <v>0.4070449144098314</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.08413135624271872</v>
+        <v>-0.05968406528714754</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8176218037304668</v>
+        <v>0.8098791212912647</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.1175229309653831</v>
+        <v>-0.1227398340971986</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)</t>
+          <t>Terminal_Fuc(a1-?)GlcNAc(b1-?)GalNAc</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.84159481528998</v>
+        <v>0.06022907073615087</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.06024351558834695</v>
+        <v>0.2424672214825853</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7705086027322977</v>
+        <v>0.7398167929673578</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.1493378592616626</v>
+        <v>0.1693845441065259</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Terminal_GalOS(b1-3)GalNAc</t>
+          <t>Terminal_Gal(b1-?)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.003319717154866932</v>
+        <v>2.700023631166197</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2168984653341299</v>
+        <v>-0.05951677453346704</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7680387923183685</v>
+        <v>0.7270797684081169</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1511765607637383</v>
+        <v>-0.1786054365631693</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)Gal(?1-?)</t>
+          <t>Terminal_GalOS(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.432111900306305</v>
+        <v>0.003322617488805872</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.07225801052822334</v>
+        <v>0.2499798802090867</v>
       </c>
       <c r="D15" t="n">
-        <v>0.756968403996491</v>
+        <v>0.7251407215242607</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.1578170083302476</v>
+        <v>0.1802176682715874</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="16">
@@ -921,1454 +921,1454 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.880584399634791</v>
+        <v>1.876119230921125</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.06427415072440912</v>
+        <v>-0.07488880684215626</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7517859756805862</v>
+        <v>0.7241952567760843</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.1619521772500679</v>
+        <v>-0.180407485993099</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-3)Gal(b1-3)GalNAc</t>
+          <t>Terminal_Gal(b1-?)GlcNAc(b1-?)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3229344530579387</v>
+        <v>1.937078681403337</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1271186150530412</v>
+        <v>-0.06529238561973383</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7360095728118192</v>
+        <v>0.7233075357077077</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1722450782742258</v>
+        <v>-0.1811670369794565</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-3)[GlcNAcOS(b1-6)]GalNAc</t>
+          <t>Terminal_Fuc(a1-?)Gal(?1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02109965959215213</v>
+        <v>1.420689438177744</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1524233205546353</v>
+        <v>-0.0890446495990318</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7322536487828393</v>
+        <v>0.7227452464328519</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1746660967711949</v>
+        <v>-0.1810861244390708</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)GlcNAc(b1-?)GalNAc</t>
+          <t>Terminal_Neu5Ac(a2-3)Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0603232752912183</v>
+        <v>0.3232027521493903</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2452859641838082</v>
+        <v>0.1348808395703718</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7319035875454042</v>
+        <v>0.7205960262564066</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1747776887896431</v>
+        <v>0.1827124605907825</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-3)</t>
+          <t>Terminal_Fuc(a1-?)Gal(?1-?)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.003861620462487</v>
+        <v>1.430126998834764</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.04829507869544525</v>
+        <v>-0.09284586010171747</v>
       </c>
       <c r="D20" t="n">
-        <v>0.727585364968111</v>
+        <v>0.7117306679725566</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.1783485006031622</v>
+        <v>-0.1886437467916068</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(?1-?)Gal(b1-?)GlcNAc</t>
+          <t>Terminal_Man(a1-3)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5642635675600902</v>
+        <v>0.3606793355531275</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.06667321392653047</v>
+        <v>0.1509094118438119</v>
       </c>
       <c r="D21" t="n">
-        <v>0.715329944304139</v>
+        <v>0.7091214357779728</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.1867163240271521</v>
+        <v>0.1906808676802478</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Terminal_Gal(a1-3)Gal(b1-3)GalNAc</t>
+          <t>Terminal_HexNAc(b1-4)GlcNAc(b1-6)GalNAc</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.07928338255841995</v>
+        <v>0.1972787964748666</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1555193909604623</v>
+        <v>-0.08130983054561014</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6928845487670273</v>
+        <v>0.7022882215467673</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2017939146257994</v>
+        <v>-0.1950983229607284</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)Gal(?1-?)GlcNAc</t>
+          <t>Terminal_Fuc(a1-2)[Gal(a1-3)]Gal</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.422724325244587</v>
+        <v>0.05525446844066615</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.06868594928177618</v>
+        <v>-0.2035207365068451</v>
       </c>
       <c r="D23" t="n">
-        <v>0.768358135888638</v>
+        <v>0.7355418850360486</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.1501743812136702</v>
+        <v>-0.1725589823191308</v>
       </c>
       <c r="I23" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-?)Gal(?1-?)GlcNAc</t>
+          <t>Terminal_Man(a1-3)[Man(a1-6)]Man</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.4873473772170162</v>
+        <v>0.2858043888619933</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1273681173235581</v>
+        <v>0.1560315251836837</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6922719858775903</v>
+        <v>0.6977426080116318</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H24" t="n">
-        <v>0.203149342203395</v>
+        <v>0.1985186029645374</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-4)GlcNAc(b1-3)</t>
+          <t>Terminal_Gal(a1-3)Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4067296441063378</v>
+        <v>0.07937582686532854</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.05679173855881947</v>
+        <v>0.09601966199380452</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8274634589771357</v>
+        <v>0.8131714200507735</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.1110827342299481</v>
+        <v>0.1204703986538652</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)[HexNAc(?1-?)]GalNAc</t>
+          <t>Terminal_Neu5Ac(a2-?)Gal(?1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.007501971497519076</v>
+        <v>0.4805177637860367</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.04046426421348048</v>
+        <v>0.07492432044235642</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8315600481559615</v>
+        <v>0.8366759109085451</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.1083611910556382</v>
+        <v>0.1054159013967891</v>
       </c>
       <c r="I26" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Terminal_GlcNAcOS(b1-6)GalNAc</t>
+          <t>Terminal_Gal(a1-?)Gal(b1-?)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.03684965646830339</v>
+        <v>0.1678500124661584</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01632755479393799</v>
+        <v>0.0071086723171776</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9683653045231333</v>
+        <v>0.9764725760202715</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0202073444043429</v>
+        <v>0.01501440182013332</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-2)Gal(b1-3)GalNAc</t>
+          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)Man</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.266044588104501</v>
+        <v>0.04340659657309412</v>
       </c>
       <c r="C28" t="n">
-        <v>0.005069730771960046</v>
+        <v>0.006099978061531647</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9670763738189518</v>
+        <v>0.9754993179396495</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02100998434288453</v>
+        <v>0.01564185380839588</v>
       </c>
       <c r="I28" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Terminal_Gal(a1-3)Gal(b1-4)GlcNAc</t>
+          <t>Terminal_Neu5Ac(a2-6)GalNAc</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0885506325800947</v>
+        <v>0.1774735298249274</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.01786405659239554</v>
+        <v>0.01237021819259887</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9367789794392944</v>
+        <v>0.9750334078538443</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.04037812480649156</v>
+        <v>0.01595594990931426</v>
       </c>
       <c r="I29" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-?)GlcNAc(b1-?)Gal</t>
+          <t>Terminal_Gal(?1-?)Gal(?1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.5430745786421496</v>
+        <v>0.02961029527205425</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.02136042937554983</v>
+        <v>0.006328891239595347</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9322649772931054</v>
+        <v>0.9736259400950676</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.04334682011961478</v>
+        <v>0.01682888866269306</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Terminal_GlcNAc(a1-?)Gal(?1-?)GlcNAc</t>
+          <t>Terminal_GalNAc(b1-4)GlcNAc(b1-6)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.9267556719874177</v>
+        <v>0.7735065989402721</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.03080705646439785</v>
+        <v>0.007615620428283343</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9216354875956583</v>
+        <v>0.9680735785517544</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.05008430654592195</v>
+        <v>0.02042135358576736</v>
       </c>
       <c r="I31" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Terminal_GlcNAc(a1-4)</t>
+          <t>Terminal_Gal(a1-3)Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.072419855382604</v>
+        <v>0.08847418560082987</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.02814172570710127</v>
+        <v>-0.01162230711578627</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9148103270842755</v>
+        <v>0.9606268707812612</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.05453425107562695</v>
+        <v>-0.02513185134836963</v>
       </c>
       <c r="I32" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Terminal_Gal(a1-?)Gal(b1-?)</t>
+          <t>Terminal_Neu5Ac(a2-3)[GalNAc(b1-4)]Gal</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1678340151385146</v>
+        <v>0.04104094978328514</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0250148157332617</v>
+        <v>0.02150100617690173</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9134855812702061</v>
+        <v>0.9353156420084759</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H33" t="n">
-        <v>0.05531390808541435</v>
+        <v>0.04134908347114791</v>
       </c>
       <c r="I33" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-6)GalNAc</t>
+          <t>Terminal_GalNAc(b1-4)GlcNAc(b1-6)GalNAc</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1771874787109038</v>
+        <v>0.8275399512813333</v>
       </c>
       <c r="C34" t="n">
-        <v>0.05210317493798078</v>
+        <v>0.01733664028776616</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8961979564543561</v>
+        <v>0.9294232706734584</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H34" t="n">
-        <v>0.06656930741519412</v>
+        <v>0.04515412240548671</v>
       </c>
       <c r="I34" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Terminal_GlcNAc(a1-4)Gal(b1-4)GlcNAc</t>
+          <t>Terminal_Gal(b1-3)[Neu5Gc(a2-6)]GalNAc</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.5973951076892507</v>
+        <v>0.003671694508091216</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.04132414266529105</v>
+        <v>-0.03446136397888822</v>
       </c>
       <c r="D35" t="n">
-        <v>0.8875525694527537</v>
+        <v>0.9243416001240417</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.07217118838077613</v>
+        <v>-0.04837270632055669</v>
       </c>
       <c r="I35" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Terminal_GlcNAc(a1-4)Gal(b1-3)GalNAc</t>
+          <t>Terminal_Gal(b1-4)GlcNAc(b1-3)Gal</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.5482690757059361</v>
+        <v>0.396954370567704</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.04051831809555484</v>
+        <v>-0.05701823306797715</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8290390221101072</v>
+        <v>0.8182369624833661</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.1102206939220125</v>
+        <v>-0.1172405862215677</v>
       </c>
       <c r="I36" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)Man</t>
+          <t>Terminal_GalNAc(b1-4)</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.04340760867832369</v>
+        <v>0.8685809010646185</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0293825274950175</v>
+        <v>0.02116476393904776</v>
       </c>
       <c r="D37" t="n">
-        <v>0.876955746164545</v>
+        <v>0.9105014528595589</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H37" t="n">
-        <v>0.07884531108352207</v>
+        <v>0.05733614464277276</v>
       </c>
       <c r="I37" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Terminal_GlcNAc(a1-?)Gal(b1-?)</t>
+          <t>Terminal_HexNAc(?1-?)Gal(b1-?)GalNAc</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.145664183395187</v>
+        <v>0.5120419394793827</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.03886251004322983</v>
+        <v>-0.037703588406377</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8696350646535049</v>
+        <v>0.8867097189366723</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.08384909942630403</v>
+        <v>-0.07255542737056903</v>
       </c>
       <c r="I38" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-4)</t>
+          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)Gal</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.549139450663086</v>
+        <v>0.8887985348868289</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.02962729268762665</v>
+        <v>-0.03670305438758081</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8689181318851807</v>
+        <v>0.8846110957899608</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.08441012717610143</v>
+        <v>-0.07396155753175321</v>
       </c>
       <c r="I39" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-3)GalNAc</t>
+          <t>Terminal_HexNAc(?1-?)Gal(b1-?)</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.6889488503647508</v>
+        <v>1.076437379104738</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.02813121262813656</v>
+        <v>-0.03405060846382302</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8575788178785411</v>
+        <v>0.8802471207629823</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.09168556869894089</v>
+        <v>-0.07674385907276154</v>
       </c>
       <c r="I40" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(?1-?)Gal(b1-?)GalNAc</t>
+          <t>Terminal_GlcNAc(a1-4)</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.5118497744908691</v>
+        <v>2.072895495485052</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.04998701153700535</v>
+        <v>-0.04305669700298953</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8427334259261594</v>
+        <v>0.8702933024166131</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.1011432206808207</v>
+        <v>-0.08326230959790121</v>
       </c>
       <c r="I41" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-4)GlcNAc(b1-6)GalNAc</t>
+          <t>Terminal_HexNAc(?1-?)Gal(b1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.142409806556749</v>
+        <v>0.564395439625355</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.03695824115856627</v>
+        <v>-0.03342134226692162</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8376834613940417</v>
+        <v>0.8661173270662703</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.10459981069574</v>
+        <v>-0.08590076526847999</v>
       </c>
       <c r="I42" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-?)</t>
+          <t>Terminal_Fuc(a1-2)Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.699431142439618</v>
+        <v>2.2665097935811</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.03413321230760413</v>
+        <v>-0.02110995988145703</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8376043966524261</v>
+        <v>0.8577567287301757</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.1048769068681049</v>
+        <v>-0.09128869929854516</v>
       </c>
       <c r="I43" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-4)GlcNAc(b1-3)Gal</t>
+          <t>Terminal_HexNAc(?1-?)</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3966445073281057</v>
+        <v>1.446950416101525</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.05404634631988969</v>
+        <v>-0.03987938103632338</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8359458235108341</v>
+        <v>0.8553631938524809</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.1055325576249198</v>
+        <v>-0.09293342151530658</v>
       </c>
       <c r="I44" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-?)GlcNAc(b1-?)GalNAc</t>
+          <t>Terminal_GlcNAc(a1-4)Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1.152494943334981</v>
+        <v>0.5975811490865409</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.03747340521035536</v>
+        <v>-0.05414092648912261</v>
       </c>
       <c r="D45" t="n">
-        <v>0.8349538503388522</v>
+        <v>0.8550755294449643</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.1063976742007818</v>
+        <v>-0.09320368538847516</v>
       </c>
       <c r="I45" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-?)GlcNAc(b1-?)</t>
+          <t>Terminal_Gal(b1-?)GlcNAc(b1-?)Gal</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.93655116585947</v>
+        <v>0.5434172892594484</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.03775899845176767</v>
+        <v>-0.0461576972106994</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8344743131125135</v>
+        <v>0.8526352492651749</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.1068929627049501</v>
+        <v>-0.0948123157868843</v>
       </c>
       <c r="I46" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)Gal</t>
+          <t>Terminal_Gal(b1-3)[GlcNAcOS(b1-6)]GalNAc</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.888793967873342</v>
+        <v>0.0211349383491601</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.03836499040494967</v>
+        <v>0.06642347907532509</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8756953458089392</v>
+        <v>0.8870259179555108</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.07980616713737973</v>
+        <v>0.07242947565664293</v>
       </c>
       <c r="I47" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Gc(a2-6)GalNAc</t>
+          <t>Terminal_Neu5Ac(a2-3)Gal(b1-3)</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.1251555620649452</v>
+        <v>0.2821618023661051</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2026151228853437</v>
+        <v>0.1645141000271195</v>
       </c>
       <c r="D48" t="n">
-        <v>0.679963870648129</v>
+        <v>0.6917729008980237</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2110272939608532</v>
+        <v>0.2025236038110802</v>
       </c>
       <c r="I48" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)GlcNAc(b1-?)</t>
+          <t>Terminal_Man(a1-2)Man(a1-3)Man</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.3118446472916279</v>
+        <v>0.23272072171749</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.09884960053471703</v>
+        <v>0.1589423737563909</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6762284808351526</v>
+        <v>0.6772898034749569</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.2133508933421163</v>
+        <v>0.2126879448257791</v>
       </c>
       <c r="I49" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-3)</t>
+          <t>Terminal_Neu5Gc(a2-6)GalNAc</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.3600982294600081</v>
+        <v>0.1253929959599666</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1659683522904931</v>
+        <v>0.2110790345301135</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6719639132753311</v>
+        <v>0.6650049484263916</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2165776477179991</v>
+        <v>0.2215044285583976</v>
       </c>
       <c r="I50" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Terminal_GlcNAc(b1-?)</t>
+          <t>Terminal_Neu5Ac(a2-?)Gal(b1-?)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.8892759881712685</v>
+        <v>0.3999094644718546</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.1120268994527924</v>
+        <v>0.258495611386599</v>
       </c>
       <c r="D51" t="n">
-        <v>0.457617004886513</v>
+        <v>0.482214000745888</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.3835397365879027</v>
+        <v>0.3613870523571582</v>
       </c>
       <c r="I51" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-?)Gal(b1-?)</t>
+          <t>Terminal_Fuc(a1-3)GlcNAc(b1-3)Gal</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.3999640259617415</v>
+        <v>0.2588834992653872</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2769538826745963</v>
+        <v>-0.1558439415842416</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4517367807836172</v>
+        <v>0.4697022456108459</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H52" t="n">
-        <v>0.3876658198781552</v>
+        <v>-0.3729894195914707</v>
       </c>
       <c r="I52" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-3)[GlcNAc(b1-6)]GalNAc</t>
+          <t>Terminal_Fuc(a1-3)</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.2409816438823391</v>
+        <v>0.2650792176604769</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.1228227926996972</v>
+        <v>-0.1548527618050763</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4479990584243703</v>
+        <v>0.4664947001632606</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.3906969354645449</v>
+        <v>-0.3757206830917317</v>
       </c>
       <c r="I53" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-3)Gal(b1-4)GlcNAc</t>
+          <t>Terminal_Fuc(a1-?)Gal(b1-?)</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1022133311306594</v>
+        <v>10.58645396638964</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4520387655396718</v>
+        <v>-0.1148606607006668</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4311443538804324</v>
+        <v>0.4591402094971325</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H54" t="n">
-        <v>0.4066733713809902</v>
+        <v>-0.3807605676233906</v>
       </c>
       <c r="I54" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-2)Man(a1-2)Man</t>
+          <t>Terminal_Neu5Ac(a2-3)Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1854064896034594</v>
+        <v>0.1022875110787554</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2681439921056432</v>
+        <v>0.4324758492991355</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4303280367386582</v>
+        <v>0.4448391551049573</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H55" t="n">
-        <v>0.4062239777562076</v>
+        <v>0.3941945257657165</v>
       </c>
       <c r="I55" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)Gal(b1-?)GlcNAc</t>
+          <t>Terminal_Fuc(a1-3)GlcNAc(b1-6)GalNAc</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>8.365621881371581</v>
+        <v>0.00619571839508974</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.1476253202809383</v>
+        <v>-0.09872632891400235</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4180616623354633</v>
+        <v>0.435376126663414</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.4173816051251076</v>
+        <v>-0.4019206099709149</v>
       </c>
       <c r="I56" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-3)</t>
+          <t>Terminal_Fuc(a1-?)Gal(b1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.4515397509504251</v>
+        <v>8.369002922854119</v>
       </c>
       <c r="C57" t="n">
-        <v>0.2777087344625166</v>
+        <v>-0.1377506931010908</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4133477724872002</v>
+        <v>0.4322454373358561</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H57" t="n">
-        <v>0.4217942011499805</v>
+        <v>-0.4044597304549016</v>
       </c>
       <c r="I57" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-2)Gal(b1-4)GlcNAc</t>
+          <t>Terminal_GlcNAc(b1-6)GalNAc</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>6.627233653242039</v>
+        <v>0.8699941765870391</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.1499153152594852</v>
+        <v>-0.1262064023947884</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3972797503524447</v>
+        <v>0.4261875753249776</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.4367095636080391</v>
+        <v>-0.4104480800472478</v>
       </c>
       <c r="I58" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-?)HexNAc(?1-?)GlcNAc</t>
+          <t>Terminal_Fuc(a1-2)Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1037970177788806</v>
+        <v>6.630482349374975</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8752492064854076</v>
+        <v>-0.1397504355691703</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3797717201477225</v>
+        <v>0.421084038262825</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H59" t="n">
-        <v>0.4668474081089272</v>
+        <v>-0.414573542656868</v>
       </c>
       <c r="I59" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Gc(a2-?)Gal(?1-?)GlcNAc</t>
+          <t>Terminal_Neu5Gc(a2-?)</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1811090234088367</v>
+        <v>0.3802358428357185</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3387770967733217</v>
+        <v>0.3297635625889637</v>
       </c>
       <c r="D60" t="n">
-        <v>0.46166209439013</v>
+        <v>0.4851864937191869</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H60" t="n">
-        <v>0.3784810293236582</v>
+        <v>0.358712532350828</v>
       </c>
       <c r="I60" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Terminal_GlcNAc(b1-6)GalNAc</t>
+          <t>Terminal_Neu5Ac(a2-?)HexNAc(?1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.8726542293953321</v>
+        <v>0.1043089344037763</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.1372777281299546</v>
+        <v>0.7995294645162597</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3784445449690746</v>
+        <v>0.4209718712787037</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.4563971965925503</v>
+        <v>0.4258144170602832</v>
       </c>
       <c r="I61" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-2)Man(a1-6)Man</t>
+          <t>Terminal_Neu5Gc(a2-?)Gal(?1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.103586177269806</v>
+        <v>0.1818225362915786</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3019964335288284</v>
+        <v>0.4197032865409447</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3625896215700677</v>
+        <v>0.3772848870711493</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H62" t="n">
-        <v>0.4707440835668878</v>
+        <v>0.4560291376379962</v>
       </c>
       <c r="I62" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.763259457759876</v>
       </c>
     </row>
     <row r="63">
@@ -2378,28 +2378,28 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.02656575744597818</v>
+        <v>0.02657274359900818</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.1737068951196729</v>
+        <v>-0.1679810000190773</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3601573847361158</v>
+        <v>0.3481135580673423</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.4750612069298976</v>
+        <v>-0.4896801018455487</v>
       </c>
       <c r="I63" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7791536896772624</v>
       </c>
     </row>
     <row r="64">
@@ -2409,59 +2409,59 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01648062066774603</v>
+        <v>0.01648219975688079</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.197808343724406</v>
+        <v>-0.1952455811055755</v>
       </c>
       <c r="D64" t="n">
-        <v>0.2879412928994756</v>
+        <v>0.2640707061702266</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.5541461074275469</v>
+        <v>-0.586131101114118</v>
       </c>
       <c r="I64" t="n">
-        <v>0.8141719171163029</v>
+        <v>0.834445226592081</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(b1-4)GlcNAc(b1-3)Gal</t>
+          <t>Terminal_Gal(b1-3)[GlcNAc(b1-6)]GalNAc</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.2079363222881456</v>
+        <v>0.2410042555072308</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.2014904097129144</v>
+        <v>-0.1971674957424843</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2737436044146291</v>
+        <v>0.2020759954152827</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.5698612018773431</v>
+        <v>-0.6720301389611608</v>
       </c>
       <c r="I65" t="n">
-        <v>0.8150980055127995</v>
+        <v>0.8740548236564943</v>
       </c>
     </row>
     <row r="66">
@@ -2471,28 +2471,28 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.2320669499678273</v>
+        <v>0.2322472308972155</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.3823256475250396</v>
+        <v>-0.3884275757058702</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1925011513518951</v>
+        <v>0.1740827356803147</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.6854137583292229</v>
+        <v>-0.7171318318802198</v>
       </c>
       <c r="I66" t="n">
-        <v>0.8713270028522112</v>
+        <v>0.8869191942257336</v>
       </c>
     </row>
     <row r="67">
@@ -2502,28 +2502,28 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1992393207953743</v>
+        <v>0.1992222054882581</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.3921223492941144</v>
+        <v>-0.3766741015117043</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1386587843303694</v>
+        <v>0.13860387893243</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.7864448144469643</v>
+        <v>-0.7862539864582078</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9066895636571359</v>
+        <v>0.8995941947298327</v>
       </c>
     </row>
     <row r="68">
@@ -2533,28 +2533,28 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1.20930409548192</v>
+        <v>1.20325064226988</v>
       </c>
       <c r="C68" t="n">
-        <v>0.2382136145062121</v>
+        <v>0.2035984993907167</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1198969498572917</v>
+        <v>0.1328893148872585</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H68" t="n">
-        <v>0.8313266203465717</v>
+        <v>0.7997432714346259</v>
       </c>
       <c r="I68" t="n">
-        <v>0.9066895636571359</v>
+        <v>0.8995941947298327</v>
       </c>
     </row>
     <row r="69">
@@ -2564,28 +2564,28 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1448708549995666</v>
+        <v>0.1448580924260829</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.4402988160696735</v>
+        <v>-0.4402894357165283</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1170132746350125</v>
+        <v>0.1132424176826732</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H69" t="n">
-        <v>-0.8355610781356668</v>
+        <v>-0.8449525522323786</v>
       </c>
       <c r="I69" t="n">
-        <v>0.9066895636571359</v>
+        <v>0.8995941947298327</v>
       </c>
     </row>
     <row r="70">
@@ -2595,865 +2595,865 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01662175877593633</v>
+        <v>0.01648160572081365</v>
       </c>
       <c r="C70" t="n">
-        <v>1.883458137347735</v>
+        <v>1.804010352944887</v>
       </c>
       <c r="D70" t="n">
-        <v>0.09797155887218129</v>
+        <v>0.1125543690052064</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H70" t="n">
-        <v>0.8920584192495193</v>
+        <v>0.850577320575333</v>
       </c>
       <c r="I70" t="n">
-        <v>0.9155413901200415</v>
+        <v>0.8995941947298327</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(b1-?)GlcNAc(b1-?)</t>
+          <t>Terminal_Neu5Ac(a2-3)</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.4051671431266344</v>
+        <v>0.4518900412153237</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.1766922271399243</v>
+        <v>0.2766967514165648</v>
       </c>
       <c r="D71" t="n">
-        <v>0.3657157404558364</v>
+        <v>0.4138248750403843</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.4674208408585839</v>
+        <v>0.4212331581217024</v>
       </c>
       <c r="I71" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)Gal(b1-?)</t>
+          <t>Terminal_Fuc(a1-2)</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>10.58269133375123</v>
+        <v>12.04067282873918</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.1183207316080521</v>
+        <v>-0.1096221214934339</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4703830107779797</v>
+        <v>0.490783517345024</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.3711940158264063</v>
+        <v>-0.3539078752849256</v>
       </c>
       <c r="I72" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-2)</t>
+          <t>Terminal_Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.5213580815853134</v>
+        <v>0.01009054384212739</v>
       </c>
       <c r="C73" t="n">
-        <v>0.2489629197859453</v>
+        <v>-0.1946939520577997</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4764619858445898</v>
+        <v>0.4970760429257085</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H73" t="n">
-        <v>0.3660059491882396</v>
+        <v>-0.3487887889632978</v>
       </c>
       <c r="I73" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Terminal_GalNAc(a1-3)Gal(b1-4)GlcNAc</t>
+          <t>Terminal_Fuc(a1-?)</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.05436846579580781</v>
+        <v>12.48746526020755</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.2206943555103785</v>
+        <v>-0.1078876447402006</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4825202261014437</v>
+        <v>0.4989414857663691</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.990682387878155</v>
       </c>
       <c r="H74" t="n">
-        <v>-0.3620503333668164</v>
+        <v>-0.3471516313339129</v>
       </c>
       <c r="I74" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-3)[Man(a1-6)]Man</t>
+          <t>Terminal_Fuc(a1-?)[HexNAc(?1-?)]GalNAc</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.2853488896179517</v>
+        <v>0.007504158414322414</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1643628099383982</v>
+        <v>-0.07914300646553318</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6718392511407667</v>
+        <v>0.664219733014791</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2166048723537162</v>
+        <v>-0.2217278951385681</v>
       </c>
       <c r="I75" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-3)Man(b1-4)GlcNAc</t>
+          <t>Terminal_Man(a1-?)</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.07474933984205642</v>
+        <v>1.168592396641041</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1767414964910274</v>
+        <v>0.1734949079114996</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6679983224687076</v>
+        <v>0.650532463721236</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2195673212429546</v>
+        <v>0.2317388707264021</v>
       </c>
       <c r="I76" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-3)Gal(b1-3)</t>
+          <t>Terminal_Fuc(a1-?)GlcNAc(b1-?)</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.2819262572445606</v>
+        <v>0.3129168516064483</v>
       </c>
       <c r="C77" t="n">
-        <v>0.1769130286202367</v>
+        <v>-0.1078861157286592</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6674309019460498</v>
+        <v>0.6478283091285533</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2196473744324078</v>
+        <v>-0.2335016977805784</v>
       </c>
       <c r="I77" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)[Gal(?1-?)]GlcNAc</t>
+          <t>Terminal_Man(a1-?)Man(a1-?)Man</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.009387575061717831</v>
+        <v>1.093717449949906</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.5257542497557455</v>
+        <v>0.1762946969517287</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6568778262423693</v>
+        <v>0.643768816516604</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H78" t="n">
-        <v>-0.2269389072817712</v>
+        <v>0.2365681387707963</v>
       </c>
       <c r="I78" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)GalNAc</t>
+          <t>Terminal_HexNAc(b1-?)GlcNAc(b1-?)</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.909393238738315</v>
+        <v>0.405266804379996</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.08763195437259785</v>
+        <v>-0.08937460254333107</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6249975692443221</v>
+        <v>0.6431096220820143</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H79" t="n">
-        <v>-0.252210102586452</v>
+        <v>-0.2367830049452769</v>
       </c>
       <c r="I79" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Gc(a2-3)Gal(b1-3)GalNAc</t>
+          <t>Terminal_Fuc(a1-2)Gal(b1-3)</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.07288017638776206</v>
+        <v>2.443502556037649</v>
       </c>
       <c r="C80" t="n">
-        <v>0.260254644978143</v>
+        <v>-0.05850599673051082</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6096936236548909</v>
+        <v>0.6374470444892131</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H80" t="n">
-        <v>0.2613314384383109</v>
+        <v>-0.2409061244407952</v>
       </c>
       <c r="I80" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-?)</t>
+          <t>Terminal_Neu5Ac(a2-?)Gal(b1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1.166805200663273</v>
+        <v>0.1177476621057495</v>
       </c>
       <c r="C81" t="n">
-        <v>0.2043260585622431</v>
+        <v>0.2139843448209404</v>
       </c>
       <c r="D81" t="n">
-        <v>0.580852205179893</v>
+        <v>0.6138697955480772</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9263732886103964</v>
       </c>
       <c r="H81" t="n">
-        <v>0.2829113228887062</v>
+        <v>0.260796126518838</v>
       </c>
       <c r="I81" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-?)Man(a1-?)Man</t>
+          <t>Terminal_Fuc(a1-?)[Gal(?1-?)]GlcNAc</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1.092055860821217</v>
+        <v>0.009437560657019475</v>
       </c>
       <c r="C82" t="n">
-        <v>0.2064426938868573</v>
+        <v>-0.5981894800794407</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5748116397858457</v>
+        <v>0.6131908684043357</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H82" t="n">
-        <v>0.287458578772639</v>
+        <v>-0.2585295117804576</v>
       </c>
       <c r="I82" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-?)Gal(b1-?)GlcNAc</t>
+          <t>Terminal_Neu5Gc(a2-3)Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.1180377687171809</v>
+        <v>0.07302031058417334</v>
       </c>
       <c r="C83" t="n">
-        <v>0.2414136356613585</v>
+        <v>0.266061135030234</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5744758006336336</v>
+        <v>0.6022402605428625</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H83" t="n">
-        <v>0.2908322789697359</v>
+        <v>0.2668053873659808</v>
       </c>
       <c r="I83" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-2)Man(a1-3)Man</t>
+          <t>Terminal_GlcNAc(a1-4)Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.2323654147120479</v>
+        <v>0.5481463665630627</v>
       </c>
       <c r="C84" t="n">
-        <v>0.2074140469603281</v>
+        <v>-0.1042767669035252</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5726424503776526</v>
+        <v>0.5909541859174778</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H84" t="n">
-        <v>0.2890375447017298</v>
+        <v>-0.2753628967979307</v>
       </c>
       <c r="I84" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Gc(a2-?)</t>
+          <t>Terminal_HexNAc(b1-4)GlcNAc(b1-3)Gal</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.379144761861544</v>
+        <v>0.2079880079051294</v>
       </c>
       <c r="C85" t="n">
-        <v>0.2853033926635926</v>
+        <v>-0.09835728683532441</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5420103443984825</v>
+        <v>0.5893472498842673</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H85" t="n">
-        <v>0.3127164474188762</v>
+        <v>-0.2763334024822879</v>
       </c>
       <c r="I85" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-3)GlcNAc(b1-6)GalNAc</t>
+          <t>Terminal_Man(a1-2)</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.006194733847309356</v>
+        <v>0.5221086722259201</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.07531130814778608</v>
+        <v>0.1956164958037854</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5362657154876254</v>
+        <v>0.5889239342492318</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H86" t="n">
-        <v>-0.3170400281053729</v>
+        <v>0.2767371114662805</v>
       </c>
       <c r="I86" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Terminal_Man(?1-?)</t>
+          <t>Terminal_HexNAc(?1-?)Gal(?1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.2369731521881903</v>
+        <v>0.02081519688257533</v>
       </c>
       <c r="C87" t="n">
-        <v>0.2434065156347778</v>
+        <v>-0.3279197502260722</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5220878785587532</v>
+        <v>0.5875597680512127</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H87" t="n">
-        <v>0.3285509301767279</v>
+        <v>-0.2783202055357861</v>
       </c>
       <c r="I87" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-3)GlcNAc(b1-3)Gal</t>
+          <t>Terminal_Gal(b1-3)</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.257716105847719</v>
+        <v>1.003949205270091</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.1368315584773638</v>
+        <v>-0.08183562384816767</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5202188321548176</v>
+        <v>0.5617585855925489</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.3313466077116546</v>
+        <v>-0.2980530832977866</v>
       </c>
       <c r="I88" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-3)</t>
+          <t>Terminal_Man(?1-?)</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.2639108396950283</v>
+        <v>0.2373275434872384</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.1354607601023092</v>
+        <v>0.2344357618189843</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5181476249366481</v>
+        <v>0.5590707296659303</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H89" t="n">
-        <v>-0.3330353791462939</v>
+        <v>0.2996435595561959</v>
       </c>
       <c r="I89" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)</t>
+          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)GalNAc</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>12.4844057475302</v>
+        <v>0.9048662435321274</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.1084458532006956</v>
+        <v>-0.1115975887550933</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5143430854710849</v>
+        <v>0.5589767605931051</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.3346453393520645</v>
+        <v>-0.3009367710702737</v>
       </c>
       <c r="I90" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-2)</t>
+          <t>Terminal_GalNAc(a1-3)Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>12.03883703044756</v>
+        <v>0.05436411306217512</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.1110163494638794</v>
+        <v>-0.1865112718530141</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5039611078660708</v>
+        <v>0.5445634125101286</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.3431055592075951</v>
+        <v>-0.311526474439161</v>
       </c>
       <c r="I91" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(?1-?)Gal(?1-?)GlcNAc</t>
+          <t>Terminal_Man(a1-2)Man(a1-6)Man</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.02080387252339642</v>
+        <v>0.1037264100183537</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.4041947660586165</v>
+        <v>0.2116170535569885</v>
       </c>
       <c r="D92" t="n">
-        <v>0.4932715609791352</v>
+        <v>0.5349298596173424</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H92" t="n">
-        <v>-0.3526287906927975</v>
+        <v>0.3182329526741872</v>
       </c>
       <c r="I92" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
+          <t>Terminal_Man(a1-2)Man(a1-2)Man</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.01008513677823215</v>
+        <v>0.1856615404900764</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.1959693435218739</v>
+        <v>0.2294201326573084</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4862842581595316</v>
+        <v>0.5136262344765784</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H93" t="n">
-        <v>-0.3576607410335179</v>
+        <v>0.3353062849244993</v>
       </c>
       <c r="I93" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(?1-?)GlcNAc(b1-?)GalNAc</t>
+          <t>Terminal_GlcNAc(b1-?)</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.09179359344999506</v>
+        <v>0.8864757823078531</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.2156873081158777</v>
+        <v>-0.1022556425112988</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4860712672242994</v>
+        <v>0.504615886556125</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.359320897046687</v>
+        <v>-0.3431896414358123</v>
       </c>
       <c r="I94" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(b1-4)GlcNAc(b1-6)GalNAc</t>
+          <t>Terminal_HexNAc(?1-?)GlcNAc(b1-?)GalNAc</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.1972308208384888</v>
+        <v>0.09178023258393359</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.1512414096981183</v>
+        <v>-0.1967384271584925</v>
       </c>
       <c r="D95" t="n">
-        <v>0.4844710976242802</v>
+        <v>0.5024667501997095</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.3590994913442678</v>
+        <v>-0.3453855409582948</v>
       </c>
       <c r="I95" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Terminal_Gal(?1-?)Gal(?1-?)GlcNAc</t>
+          <t>Terminal_GlcNAc(a1-?)Gal(?1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.02960200928309273</v>
+        <v>0.927167979835449</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.007461448711280627</v>
+        <v>-0.008067808971540913</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9691887086113727</v>
+        <v>0.9787035205380314</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9890056628594843</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.01966199881060691</v>
+        <v>-0.01359227351646003</v>
       </c>
       <c r="I96" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-3)[Neu5Gc(a2-6)]GalNAc</t>
+          <t>Terminal_GlcNAcOS(b1-6)GalNAc</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.003666379904950437</v>
+        <v>0.03689365364648568</v>
       </c>
       <c r="C97" t="n">
-        <v>0.01053980993455017</v>
+        <v>0.0040798265695553</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9924573851858676</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9764490954358072</v>
+        <v>0.9924573851858676</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0.9960803033370339</v>
+        <v>0.9881930273712043</v>
       </c>
       <c r="H97" t="n">
-        <v>0.01503501506460475</v>
+        <v>0.004819092974469301</v>
       </c>
       <c r="I97" t="n">
-        <v>0.7685973150986142</v>
+        <v>0.7487699593765782</v>
       </c>
     </row>
   </sheetData>

--- a/Python_output_files/Tables/differential_glycomics_treatment.xlsx
+++ b/Python_output_files/Tables/differential_glycomics_treatment.xlsx
@@ -483,1427 +483,1427 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-6)GlcNAc</t>
+          <t>Terminal_GlcNAc(b1-4)Man(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06863607292270178</v>
+        <v>0.01672678416192941</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3890114290531609</v>
+        <v>1.886220535616933</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1071502133436517</v>
+        <v>0.09340086652530789</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8712291355814008</v>
+        <v>0.9064880756684109</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8995941947298327</v>
+        <v>0.9102458747868201</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-4)</t>
+          <t>Terminal_Fuc(a1-?)GlcNAc(b1-?)GalNAc</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.549611507204362</v>
+        <v>0.06028394886789278</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0466814867568317</v>
+        <v>0.2102797110560805</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7998708684860747</v>
+        <v>0.7739987337692872</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.1295511278962951</v>
+        <v>0.1463830672914183</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-3)[Neu5Ac(a2-6)]GalNAc</t>
+          <t>Terminal_Fuc(a1-2)[Gal(a1-3)]Gal</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03273224955899039</v>
+        <v>0.05513258710253732</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.09614590549737034</v>
+        <v>-0.1741659705973517</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7952365629963249</v>
+        <v>0.771483580631682</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.1322887651533535</v>
+        <v>-0.1483036289760744</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-4)GlcNAc(b1-6)GalNAc</t>
+          <t>Terminal_Gal(b1-4)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.14256659279453</v>
+        <v>1.551012835917911</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.04947008101508477</v>
+        <v>-0.05354500463262113</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7858270393165164</v>
+        <v>0.7706638010957694</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1387351020375023</v>
+        <v>-0.1491222294273133</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Terminal_GalNAc(b1-?)[Fuc(a1-?)]GlcNAc</t>
+          <t>Terminal_Gal(b1-3)[GlcNAcOS(b1-6)]GalNAc</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05403335234106112</v>
+        <v>0.02107796470062524</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3142941225748724</v>
+        <v>0.1331877765104788</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7854317593095044</v>
+        <v>0.7657729636088904</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1387699852826424</v>
+        <v>0.1520278413825585</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-?)GlcNAc(b1-?)GalNAc</t>
+          <t>Terminal_Gal(b1-?)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.152657136636658</v>
+        <v>2.700342198931986</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.05008450993278935</v>
+        <v>-0.05111490528875073</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7828846037628966</v>
+        <v>0.7636938538972829</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.1407008159451388</v>
+        <v>-0.1538545537184673</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-3)GalNAc</t>
+          <t>Terminal_GalOS(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6889238675897382</v>
+        <v>0.003322750727396544</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.04776283511623847</v>
+        <v>0.2250165723964157</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7646741885012747</v>
+        <v>0.7548757837967575</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.1529338342039149</v>
+        <v>0.1600249157873802</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-3)Man(b1-4)GlcNAc</t>
+          <t>Terminal_GlcNAc(a1-4)Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07487494669113423</v>
+        <v>0.5967275109049143</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1352917703169962</v>
+        <v>-0.09144080796307108</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7475755443231225</v>
+        <v>0.7543866884044281</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1644943579402825</v>
+        <v>-0.1599475836002613</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Terminal_GlcNAc(a1-?)Gal(b1-?)</t>
+          <t>Terminal_Neu5Ac(a2-3)Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.145727515649603</v>
+        <v>0.3221972773144623</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.07846118078104691</v>
+        <v>0.1242731942744597</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7475540918830348</v>
+        <v>0.733000846219088</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.1645085736453567</v>
+        <v>0.1742110529523123</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)</t>
+          <t>Terminal_Gal(b1-3)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.83707137499205</v>
+        <v>1.003050967387698</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.07133116456778144</v>
+        <v>-0.04986793783977372</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7411712980559878</v>
+        <v>0.7316174241964284</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.1688315459534023</v>
+        <v>-0.1752926160952727</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-4)GlcNAc(b1-3)</t>
+          <t>Terminal_Gal(b1-?)GlcNAc(b1-?)Gal</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4070449144098314</v>
+        <v>0.5456327760526627</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.05968406528714754</v>
+        <v>-0.07115265433518347</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8098791212912647</v>
+        <v>0.774279555795311</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.1227398340971986</v>
+        <v>-0.1465450062336996</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)GlcNAc(b1-?)GalNAc</t>
+          <t>Terminal_Gal(a1-3)Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06022907073615087</v>
+        <v>0.07924370690784079</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2424672214825853</v>
+        <v>0.1386166252092715</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7398167929673578</v>
+        <v>0.7302468466210055</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1693845441065259</v>
+        <v>0.1759685605231107</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-?)</t>
+          <t>Terminal_Fuc(a1-2)Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.700023631166197</v>
+        <v>2.267680736522102</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.05951677453346704</v>
+        <v>-0.04122988672821926</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7270797684081169</v>
+        <v>0.7242862325309745</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.1786054365631693</v>
+        <v>-0.1800385275676959</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Terminal_GalOS(b1-3)GalNAc</t>
+          <t>Terminal_Gal(b1-4)GlcNAc(b1-3)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.003322617488805872</v>
+        <v>0.409431020255614</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2499798802090867</v>
+        <v>-0.09563322827119203</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7251407215242607</v>
+        <v>0.7090662308092753</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1802176682715874</v>
+        <v>-0.1905389359952472</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Terminal_Gal(?1-?)</t>
+          <t>Terminal_Neu5Ac(a2-?)Gal(?1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.876119230921125</v>
+        <v>0.4886686046751324</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.07488880684215626</v>
+        <v>0.1154629210508453</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7241952567760843</v>
+        <v>0.7082984862633213</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.180407485993099</v>
+        <v>0.1920106260140455</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-?)GlcNAc(b1-?)</t>
+          <t>Terminal_Fuc(a1-?)Gal(?1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.937078681403337</v>
+        <v>1.421779805156593</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.06529238561973383</v>
+        <v>-0.09036250105860866</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7233075357077077</v>
+        <v>0.7082441524241899</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.1811670369794565</v>
+        <v>-0.1910384837158466</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)Gal(?1-?)GlcNAc</t>
+          <t>Terminal_Gal(b1-4)GlcNAc(b1-3)Gal</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.420689438177744</v>
+        <v>0.3993543804262855</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0890446495990318</v>
+        <v>-0.09638820764970424</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7227452464328519</v>
+        <v>0.7077775997611171</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.1810861244390708</v>
+        <v>-0.1914255807589817</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-3)Gal(b1-3)GalNAc</t>
+          <t>Terminal_Fuc(a1-?)Gal(?1-?)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3232027521493903</v>
+        <v>1.431186417355546</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1348808395703718</v>
+        <v>-0.09400272786940622</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7205960262564066</v>
+        <v>0.697489343635268</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1827124605907825</v>
+        <v>-0.1984769165131165</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)Gal(?1-?)</t>
+          <t>Terminal_Fuc(a1-?)[HexNAc(?1-?)]GalNAc</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.430126998834764</v>
+        <v>0.007497433743092756</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.09284586010171747</v>
+        <v>-0.08252630660300619</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7117306679725566</v>
+        <v>0.6912328789722948</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.1886437467916068</v>
+        <v>-0.2029084574361346</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-3)</t>
+          <t>Terminal_Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3606793355531275</v>
+        <v>0.01007663982932857</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1509094118438119</v>
+        <v>-0.1138532750866923</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7091214357779728</v>
+        <v>0.6881402124206977</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1906808676802478</v>
+        <v>-0.2049779178414453</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(b1-4)GlcNAc(b1-6)GalNAc</t>
+          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1972787964748666</v>
+        <v>1.841758515474631</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.08130983054561014</v>
+        <v>-0.08767267281382551</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7022882215467673</v>
+        <v>0.6834622310137694</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.1950983229607284</v>
+        <v>-0.2088576611190907</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-2)[Gal(a1-3)]Gal</t>
+          <t>Terminal_Gal(b1-?)GlcNAc(b1-?)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.05525446844066615</v>
+        <v>1.938113398072335</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.2035207365068451</v>
+        <v>-0.06424545470102938</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7355418850360486</v>
+        <v>0.7276258494830157</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.1725589823191308</v>
+        <v>-0.1782986869314022</v>
       </c>
       <c r="I23" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-3)[Man(a1-6)]Man</t>
+          <t>Terminal_Man(a1-3)Man(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2858043888619933</v>
+        <v>0.0746581702698059</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1560315251836837</v>
+        <v>0.1715392970000332</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6977426080116318</v>
+        <v>0.6798104901081575</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1985186029645374</v>
+        <v>0.2113102630950654</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Terminal_Gal(a1-3)Gal(b1-3)GalNAc</t>
+          <t>Terminal_Gal(b1-4)GlcNAc(b1-6)GalNAc</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.07937582686532854</v>
+        <v>1.141581815662297</v>
       </c>
       <c r="C25" t="n">
-        <v>0.09601966199380452</v>
+        <v>-0.05328113252975886</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8131714200507735</v>
+        <v>0.7752050573355322</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1204703986538652</v>
+        <v>-0.1458057736921447</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-?)Gal(?1-?)GlcNAc</t>
+          <t>Terminal_HexNAc(b1-4)GlcNAc(b1-6)GalNAc</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4805177637860367</v>
+        <v>0.1970979184271449</v>
       </c>
       <c r="C26" t="n">
-        <v>0.07492432044235642</v>
+        <v>-0.06232892137673396</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8366759109085451</v>
+        <v>0.7795416663397412</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1054159013967891</v>
+        <v>-0.142684662244043</v>
       </c>
       <c r="I26" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Terminal_Gal(a1-?)Gal(b1-?)</t>
+          <t>Terminal_Gal(a1-3)Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1678500124661584</v>
+        <v>0.08841108761004628</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0071086723171776</v>
+        <v>-0.01597173204463576</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9764725760202715</v>
+        <v>0.9448492295071023</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01501440182013332</v>
+        <v>-0.03521518245569552</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)Man</t>
+          <t>Terminal_GlcNAcOS(b1-6)GalNAc</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.04340659657309412</v>
+        <v>0.03682332907107707</v>
       </c>
       <c r="C28" t="n">
-        <v>0.006099978061531647</v>
+        <v>0.03177747191845953</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9754993179396495</v>
+        <v>0.9395501598592544</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01564185380839588</v>
+        <v>0.03865584798236408</v>
       </c>
       <c r="I28" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-6)GalNAc</t>
+          <t>Terminal_Gal(a1-?)Gal(b1-?)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1774735298249274</v>
+        <v>0.167654794517887</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01237021819259887</v>
+        <v>0.01852138712266549</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9750334078538443</v>
+        <v>0.9386632328443963</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01595594990931426</v>
+        <v>0.03918530272069902</v>
       </c>
       <c r="I29" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Terminal_Gal(?1-?)Gal(?1-?)GlcNAc</t>
+          <t>Terminal_HexNAc(?1-?)Gal(b1-?)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02961029527205425</v>
+        <v>1.075163583316878</v>
       </c>
       <c r="C30" t="n">
-        <v>0.006328891239595347</v>
+        <v>-0.02205520827928975</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9736259400950676</v>
+        <v>0.9237078654051836</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01682888866269306</v>
+        <v>-0.04876294847689764</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Terminal_GalNAc(b1-4)GlcNAc(b1-6)</t>
+          <t>Terminal_Neu5Ac(a2-6)GalNAc</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.7735065989402721</v>
+        <v>0.1769878369180551</v>
       </c>
       <c r="C31" t="n">
-        <v>0.007615620428283343</v>
+        <v>0.0359711999415846</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9680735785517544</v>
+        <v>0.9233635038632881</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H31" t="n">
-        <v>0.02042135358576736</v>
+        <v>0.04903674803320828</v>
       </c>
       <c r="I31" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Terminal_Gal(a1-3)Gal(b1-4)GlcNAc</t>
+          <t>Terminal_HexNAc(?1-?)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.08847418560082987</v>
+        <v>1.445225110489512</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.01162230711578627</v>
+        <v>-0.02103711734805369</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9606268707812612</v>
+        <v>0.9228811273062468</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.02513185134836963</v>
+        <v>-0.04934485316923642</v>
       </c>
       <c r="I32" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-3)[GalNAc(b1-4)]Gal</t>
+          <t>Terminal_HexNAc(?1-?)Gal(b1-?)GalNAc</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.04104094978328514</v>
+        <v>0.5113637888380957</v>
       </c>
       <c r="C33" t="n">
-        <v>0.02150100617690173</v>
+        <v>-0.02639149678727204</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9353156420084759</v>
+        <v>0.9218861684141872</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H33" t="n">
-        <v>0.04134908347114791</v>
+        <v>-0.04992364273411799</v>
       </c>
       <c r="I33" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Terminal_GalNAc(b1-4)GlcNAc(b1-6)GalNAc</t>
+          <t>Terminal_HexNAc(?1-?)Gal(b1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.8275399512813333</v>
+        <v>0.5637997944787819</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01733664028776616</v>
+        <v>-0.02141370980330626</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9294232706734584</v>
+        <v>0.9162871043040779</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H34" t="n">
-        <v>0.04515412240548671</v>
+        <v>-0.05352845912156281</v>
       </c>
       <c r="I34" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-3)[Neu5Gc(a2-6)]GalNAc</t>
+          <t>Terminal_Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.003671694508091216</v>
+        <v>0.6883727269666495</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.03446136397888822</v>
+        <v>-0.01693325363770626</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9243416001240417</v>
+        <v>0.9157592322205655</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.04837270632055669</v>
+        <v>-0.05398843842586108</v>
       </c>
       <c r="I35" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-4)GlcNAc(b1-3)Gal</t>
+          <t>Terminal_Gal(b1-?)GlcNAc(b1-?)GalNAc</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.396954370567704</v>
+        <v>1.151658455491626</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.05701823306797715</v>
+        <v>-0.05311095117713194</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8182369624833661</v>
+        <v>0.7753238464373224</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.1172405862215677</v>
+        <v>-0.1457350189253397</v>
       </c>
       <c r="I36" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Terminal_GalNAc(b1-4)</t>
+          <t>Terminal_GalNAc(b1-4)GlcNAc(b1-6)</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.8685809010646185</v>
+        <v>0.7727159821833094</v>
       </c>
       <c r="C37" t="n">
-        <v>0.02116476393904776</v>
+        <v>0.02437588108528033</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9105014528595589</v>
+        <v>0.8999268104706839</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H37" t="n">
-        <v>0.05733614464277276</v>
+        <v>0.0641379869733391</v>
       </c>
       <c r="I37" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(?1-?)Gal(b1-?)GalNAc</t>
+          <t>Terminal_GalNAc(b1-4)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.5120419394793827</v>
+        <v>0.8677738597566522</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.037703588406377</v>
+        <v>0.0296683862717213</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8867097189366723</v>
+        <v>0.8757893829714264</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.07255542737056903</v>
+        <v>0.07972500190721492</v>
       </c>
       <c r="I38" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)Gal</t>
+          <t>Terminal_GalNAc(b1-4)GlcNAc(b1-6)GalNAc</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.8887985348868289</v>
+        <v>0.8268087182286114</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.03670305438758081</v>
+        <v>0.03159094652009919</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8846110957899608</v>
+        <v>0.8724784584747849</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.07396155753175321</v>
+        <v>0.08184730445489848</v>
       </c>
       <c r="I39" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(?1-?)Gal(b1-?)</t>
+          <t>Terminal_Gal(?1-?)Gal(?1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.076437379104738</v>
+        <v>0.02959213117620383</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.03405060846382302</v>
+        <v>0.03848764584101894</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8802471207629823</v>
+        <v>0.8425641392604373</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.07674385907276154</v>
+        <v>0.1011745630032111</v>
       </c>
       <c r="I40" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Terminal_GlcNAc(a1-4)</t>
+          <t>Terminal_GlcNAc(a1-?)Gal(?1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.072895495485052</v>
+        <v>0.9257537232137372</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.04305669700298953</v>
+        <v>-0.06305006430187454</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8702933024166131</v>
+        <v>0.8395509251580735</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.08326230959790121</v>
+        <v>-0.1031425564446037</v>
       </c>
       <c r="I41" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(?1-?)Gal(b1-?)GlcNAc</t>
+          <t>Terminal_GlcNAc(a1-4)</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.564395439625355</v>
+        <v>2.070096515240011</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.03342134226692162</v>
+        <v>-0.05483100748537151</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8661173270662703</v>
+        <v>0.836356466361476</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.08590076526847999</v>
+        <v>-0.1053408832777627</v>
       </c>
       <c r="I42" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-2)Gal(b1-3)GalNAc</t>
+          <t>Terminal_GalNAc(b1-?)[Fuc(a1-?)]GlcNAc</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.2665097935811</v>
+        <v>0.05409273604530199</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.02110995988145703</v>
+        <v>0.268978058960842</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8577567287301757</v>
+        <v>0.8180203389157501</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.09128869929854516</v>
+        <v>0.1172431573414502</v>
       </c>
       <c r="I43" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(?1-?)</t>
+          <t>Terminal_GlcNAc(a1-?)Gal(b1-?)</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.446950416101525</v>
+        <v>1.144342792026275</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.03987938103632338</v>
+        <v>-0.05991940338918766</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8553631938524809</v>
+        <v>0.8042510928092117</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.09293342151530658</v>
+        <v>-0.126610865022464</v>
       </c>
       <c r="I44" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Terminal_GlcNAc(a1-4)Gal(b1-4)GlcNAc</t>
+          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)Gal</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.5975811490865409</v>
+        <v>0.888071565098306</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.05414092648912261</v>
+        <v>-0.06159276451610829</v>
       </c>
       <c r="D45" t="n">
-        <v>0.8550755294449643</v>
+        <v>0.8018951844605234</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.09320368538847516</v>
+        <v>-0.1281200265092635</v>
       </c>
       <c r="I45" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-?)GlcNAc(b1-?)Gal</t>
+          <t>Terminal_Neu5Ac(a2-3)[GalNAc(b1-4)]Gal</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.5434172892594484</v>
+        <v>0.04096514152804111</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.0461576972106994</v>
+        <v>-0.06316005060099056</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8526352492651749</v>
+        <v>0.8008640977734387</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.0948123157868843</v>
+        <v>-0.1286007449318631</v>
       </c>
       <c r="I46" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-3)[GlcNAcOS(b1-6)]GalNAc</t>
+          <t>Terminal_GlcNAc(a1-4)Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.0211349383491601</v>
+        <v>0.5476152811213604</v>
       </c>
       <c r="C47" t="n">
-        <v>0.06642347907532509</v>
+        <v>-0.02937150261526966</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8870259179555108</v>
+        <v>0.8827662266291837</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H47" t="n">
-        <v>0.07242947565664293</v>
+        <v>-0.07513104780010639</v>
       </c>
       <c r="I47" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="48">
@@ -1913,90 +1913,90 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2821618023661051</v>
+        <v>0.2812321357864212</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1645141000271195</v>
+        <v>0.1687690346391704</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6917729008980237</v>
+        <v>0.6745042991082628</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2025236038110802</v>
+        <v>0.2145899432059246</v>
       </c>
       <c r="I48" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-2)Man(a1-3)Man</t>
+          <t>Terminal_Man(a1-3)</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.23272072171749</v>
+        <v>0.3596918346323709</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1589423737563909</v>
+        <v>0.1612004542360448</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6772898034749569</v>
+        <v>0.6741027715001147</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H49" t="n">
-        <v>0.2126879448257791</v>
+        <v>0.2150327279060625</v>
       </c>
       <c r="I49" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Gc(a2-6)GalNAc</t>
+          <t>Terminal_Man(a1-3)[Man(a1-6)]Man</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1253929959599666</v>
+        <v>0.2850336643625651</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2110790345301135</v>
+        <v>0.1584807689437548</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6650049484263916</v>
+        <v>0.6738699366511494</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2215044285583976</v>
+        <v>0.2151148005868286</v>
       </c>
       <c r="I50" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="51">
@@ -2006,462 +2006,462 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.3999094644718546</v>
+        <v>0.3993251156660302</v>
       </c>
       <c r="C51" t="n">
-        <v>0.258495611386599</v>
+        <v>0.2631738005329214</v>
       </c>
       <c r="D51" t="n">
-        <v>0.482214000745888</v>
+        <v>0.4598373729840548</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H51" t="n">
-        <v>0.3613870523571582</v>
+        <v>0.3804086836854532</v>
       </c>
       <c r="I51" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-3)GlcNAc(b1-3)Gal</t>
+          <t>Terminal_Neu5Ac(a2-?)HexNAc(?1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.2588834992653872</v>
+        <v>0.1052543261965677</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.1558439415842416</v>
+        <v>0.7507096928961448</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4697022456108459</v>
+        <v>0.4481628363061637</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.3729894195914707</v>
+        <v>0.4005183269330505</v>
       </c>
       <c r="I52" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-3)</t>
+          <t>Terminal_Fuc(a1-?)</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.2650792176604769</v>
+        <v>12.4871184590442</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.1548527618050763</v>
+        <v>-0.1322486705451666</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4664947001632606</v>
+        <v>0.4322145032209395</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.3757206830917317</v>
+        <v>-0.4044542766429871</v>
       </c>
       <c r="I53" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)Gal(b1-?)</t>
+          <t>Terminal_GlcNAc(b1-6)GalNAc</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>10.58645396638964</v>
+        <v>0.8708162544853052</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.1148606607006668</v>
+        <v>-0.130037841041295</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4591402094971325</v>
+        <v>0.4279161954182968</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.3807605676233906</v>
+        <v>-0.4087647480120285</v>
       </c>
       <c r="I54" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-3)Gal(b1-4)GlcNAc</t>
+          <t>Terminal_Fuc(a1-2)</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1022875110787554</v>
+        <v>12.03793581698703</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4324758492991355</v>
+        <v>-0.1337621484579188</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4448391551049573</v>
+        <v>0.4258543223664711</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H55" t="n">
-        <v>0.3941945257657165</v>
+        <v>-0.4102200403871531</v>
       </c>
       <c r="I55" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-3)GlcNAc(b1-6)GalNAc</t>
+          <t>Terminal_Neu5Ac(a2-3)</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.00619571839508974</v>
+        <v>0.4507803939441992</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.09872632891400235</v>
+        <v>0.269653031295233</v>
       </c>
       <c r="D56" t="n">
-        <v>0.435376126663414</v>
+        <v>0.4114342384506762</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.4019206099709149</v>
+        <v>0.4234226121598111</v>
       </c>
       <c r="I56" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)Gal(b1-?)GlcNAc</t>
+          <t>Terminal_Gal(b1-3)[GlcNAc(b1-6)]GalNAc</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>8.369002922854119</v>
+        <v>0.2408221665280469</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.1377506931010908</v>
+        <v>-0.1520566482114352</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4322454373358561</v>
+        <v>0.400719569951114</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.4044597304549016</v>
+        <v>-0.4333587301323027</v>
       </c>
       <c r="I57" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Terminal_GlcNAc(b1-6)GalNAc</t>
+          <t>Terminal_Fuc(a1-3)GlcNAc(b1-3)Gal</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.8699941765870391</v>
+        <v>0.2605523512700971</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.1262064023947884</v>
+        <v>-0.1953530047467309</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4261875753249776</v>
+        <v>0.399879275739721</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.4104480800472478</v>
+        <v>-0.4357737826896366</v>
       </c>
       <c r="I58" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-2)Gal(b1-4)GlcNAc</t>
+          <t>Terminal_Fuc(a1-3)</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>6.630482349374975</v>
+        <v>0.2667435640926878</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.1397504355691703</v>
+        <v>-0.1940589004498547</v>
       </c>
       <c r="D59" t="n">
-        <v>0.421084038262825</v>
+        <v>0.3971520880103632</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.414573542656868</v>
+        <v>-0.4383237498789663</v>
       </c>
       <c r="I59" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Gc(a2-?)</t>
+          <t>Terminal_Gal(b1-?)[Fuc(a1-?)]GalNAc</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.3802358428357185</v>
+        <v>0.01647004043505236</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3297635625889637</v>
+        <v>-0.140749303064585</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4851864937191869</v>
+        <v>0.4628711855535447</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H60" t="n">
-        <v>0.358712532350828</v>
+        <v>-0.3778432876706846</v>
       </c>
       <c r="I60" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-?)HexNAc(?1-?)GlcNAc</t>
+          <t>Terminal_Neu5Gc(a2-?)Gal(?1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1043089344037763</v>
+        <v>0.1813015227936945</v>
       </c>
       <c r="C61" t="n">
-        <v>0.7995294645162597</v>
+        <v>0.3975728337001199</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4209718712787037</v>
+        <v>0.3952587709277511</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H61" t="n">
-        <v>0.4258144170602832</v>
+        <v>0.4385287017988967</v>
       </c>
       <c r="I61" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Gc(a2-?)Gal(?1-?)GlcNAc</t>
+          <t>Terminal_Fuc(a1-?)Gal(b1-?)</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1818225362915786</v>
+        <v>10.58275630600303</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4197032865409447</v>
+        <v>-0.1418140725614885</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3772848870711493</v>
+        <v>0.3894110636405989</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H62" t="n">
-        <v>0.4560291376379962</v>
+        <v>-0.4443041588669569</v>
       </c>
       <c r="I62" t="n">
-        <v>0.763259457759876</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)GalNAc</t>
+          <t>Terminal_Fuc(a1-2)Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.02657274359900818</v>
+        <v>6.627535230644584</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.1679810000190773</v>
+        <v>-0.1578713695314375</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3481135580673423</v>
+        <v>0.3843275232307046</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.4896801018455487</v>
+        <v>-0.4491543914774537</v>
       </c>
       <c r="I63" t="n">
-        <v>0.7791536896772624</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-?)[Fuc(a1-?)]GalNAc</t>
+          <t>Terminal_Fuc(a1-?)Gal(b1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01648219975688079</v>
+        <v>8.364016943760873</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.1952455811055755</v>
+        <v>-0.1654734550178922</v>
       </c>
       <c r="D64" t="n">
-        <v>0.2640707061702266</v>
+        <v>0.3730359107110702</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.586131101114118</v>
+        <v>-0.4602974474863875</v>
       </c>
       <c r="I64" t="n">
-        <v>0.834445226592081</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-3)[GlcNAc(b1-6)]GalNAc</t>
+          <t>Terminal_HexNAc(b1-4)GlcNAc(b1-3)Gal</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.2410042555072308</v>
+        <v>0.2078122192280069</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.1971674957424843</v>
+        <v>-0.1732466450558721</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2020759954152827</v>
+        <v>0.3551750254305739</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.6720301389611608</v>
+        <v>-0.4784209187609009</v>
       </c>
       <c r="I65" t="n">
-        <v>0.8740548236564943</v>
+        <v>0.7539052806483274</v>
       </c>
     </row>
     <row r="66">
@@ -2471,28 +2471,28 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.2322472308972155</v>
+        <v>0.230941369191702</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.3884275757058702</v>
+        <v>-0.3553839896305848</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1740827356803147</v>
+        <v>0.2252175643085216</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.7171318318802198</v>
+        <v>-0.6351229155682908</v>
       </c>
       <c r="I66" t="n">
-        <v>0.8869191942257336</v>
+        <v>0.8371705962315664</v>
       </c>
     </row>
     <row r="67">
@@ -2502,586 +2502,586 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1992222054882581</v>
+        <v>0.1991420145495348</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.3766741015117043</v>
+        <v>-0.3261944659446669</v>
       </c>
       <c r="D67" t="n">
-        <v>0.13860387893243</v>
+        <v>0.2231480382679775</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.7862539864582078</v>
+        <v>-0.6383703195604711</v>
       </c>
       <c r="I67" t="n">
-        <v>0.8995941947298327</v>
+        <v>0.8371705962315664</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-?)</t>
+          <t>Terminal_GalNAc(a1-3)Gal(b1-3)GlcNAc</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1.20325064226988</v>
+        <v>0.1448054884302179</v>
       </c>
       <c r="C68" t="n">
-        <v>0.2035984993907167</v>
+        <v>-0.3771539200456904</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1328893148872585</v>
+        <v>0.1789303319769324</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H68" t="n">
-        <v>0.7997432714346259</v>
+        <v>-0.7076696616255591</v>
       </c>
       <c r="I68" t="n">
-        <v>0.8995941947298327</v>
+        <v>0.863395653861769</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Terminal_GalNAc(a1-3)Gal(b1-3)GlcNAc</t>
+          <t>Terminal_Fuc(a1-6)GlcNAc</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1448580924260829</v>
+        <v>0.06935394726021328</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.4402894357165283</v>
+        <v>0.3360727677903695</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1132424176826732</v>
+        <v>0.1609732445102335</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H69" t="n">
-        <v>-0.8449525522323786</v>
+        <v>0.7464190093656407</v>
       </c>
       <c r="I69" t="n">
-        <v>0.8995941947298327</v>
+        <v>0.8717036266318667</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Terminal_GlcNAc(b1-4)Man(b1-4)GlcNAc</t>
+          <t>Terminal_Neu5Ac(a2-?)</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01648160572081365</v>
+        <v>1.211201024983827</v>
       </c>
       <c r="C70" t="n">
-        <v>1.804010352944887</v>
+        <v>0.2062857417965347</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1125543690052064</v>
+        <v>0.1252707220801468</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H70" t="n">
-        <v>0.850577320575333</v>
+        <v>0.8160325935405691</v>
       </c>
       <c r="I70" t="n">
-        <v>0.8995941947298327</v>
+        <v>0.8901638276992084</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-3)</t>
+          <t>Terminal_Fuc(a1-3)GlcNAc(b1-6)GalNAc</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.4518900412153237</v>
+        <v>0.006191212822590789</v>
       </c>
       <c r="C71" t="n">
-        <v>0.2766967514165648</v>
+        <v>-0.1139504394751145</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4138248750403843</v>
+        <v>0.3943224054297475</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H71" t="n">
-        <v>0.4212331581217024</v>
+        <v>-0.4397394742110384</v>
       </c>
       <c r="I71" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-2)</t>
+          <t>Terminal_HexNAc(?1-?)GlcNAc(b1-?)GalNAc</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>12.04067282873918</v>
+        <v>0.09174117051980404</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.1096221214934339</v>
+        <v>-0.2028703332130691</v>
       </c>
       <c r="D72" t="n">
-        <v>0.490783517345024</v>
+        <v>0.467309596672246</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.3539078752849256</v>
+        <v>-0.3742405377200989</v>
       </c>
       <c r="I72" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
+          <t>Terminal_Neu5Gc(a2-?)</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01009054384212739</v>
+        <v>0.379101591477732</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.1946939520577997</v>
+        <v>0.3189924388641425</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4970760429257085</v>
+        <v>0.4936141353465129</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H73" t="n">
-        <v>-0.3487887889632978</v>
+        <v>0.3515838103647353</v>
       </c>
       <c r="I73" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)</t>
+          <t>Terminal_Neu5Ac(a2-3)Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>12.48746526020755</v>
+        <v>0.102191396807383</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.1078876447402006</v>
+        <v>0.3953998104290164</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4989414857663691</v>
+        <v>0.4999734185639984</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0.990682387878155</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H74" t="n">
-        <v>-0.3471516313339129</v>
+        <v>0.347497686021417</v>
       </c>
       <c r="I74" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)[HexNAc(?1-?)]GalNAc</t>
+          <t>Terminal_Gal(?1-?)</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.007504158414322414</v>
+        <v>1.880757258849788</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.07914300646553318</v>
+        <v>-0.090112034109465</v>
       </c>
       <c r="D75" t="n">
-        <v>0.664219733014791</v>
+        <v>0.6698901665149474</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H75" t="n">
-        <v>-0.2217278951385681</v>
+        <v>-0.218424108929416</v>
       </c>
       <c r="I75" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-?)</t>
+          <t>Terminal_Neu5Ac(a2-?)Gal(b1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1.168592396641041</v>
+        <v>0.118092979879609</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1734949079114996</v>
+        <v>0.198015083774973</v>
       </c>
       <c r="D76" t="n">
-        <v>0.650532463721236</v>
+        <v>0.6525331519793794</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2317388707264021</v>
+        <v>0.2326118822048314</v>
       </c>
       <c r="I76" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)GlcNAc(b1-?)</t>
+          <t>Terminal_Neu5Gc(a2-6)GalNAc</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.3129168516064483</v>
+        <v>0.1250052968605367</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.1078861157286592</v>
+        <v>0.2190500995637075</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6478283091285533</v>
+        <v>0.6478837614652608</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H77" t="n">
-        <v>-0.2335016977805784</v>
+        <v>0.2337506855961287</v>
       </c>
       <c r="I77" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-?)Man(a1-?)Man</t>
+          <t>Terminal_Fuc(a1-?)[Gal(?1-?)]GlcNAc</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1.093717449949906</v>
+        <v>0.009406612198952884</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1762946969517287</v>
+        <v>-0.5553348745656352</v>
       </c>
       <c r="D78" t="n">
-        <v>0.643768816516604</v>
+        <v>0.6434514590923026</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2365681387707963</v>
+        <v>-0.2365371242399121</v>
       </c>
       <c r="I78" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(b1-?)GlcNAc(b1-?)</t>
+          <t>Terminal_Neu5Gc(a2-3)Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.405266804379996</v>
+        <v>0.07279477182350073</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.08937460254333107</v>
+        <v>0.2380142516820035</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6431096220820143</v>
+        <v>0.6398608152217411</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H79" t="n">
-        <v>-0.2367830049452769</v>
+        <v>0.2393455555339504</v>
       </c>
       <c r="I79" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-2)Gal(b1-3)</t>
+          <t>Terminal_GalNAc(a1-3)Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2.443502556037649</v>
+        <v>0.05433652611931685</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.05850599673051082</v>
+        <v>-0.1558686025118653</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6374470444892131</v>
+        <v>0.6375712432747487</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H80" t="n">
-        <v>-0.2409061244407952</v>
+        <v>-0.2417211420535879</v>
       </c>
       <c r="I80" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-?)Gal(b1-?)GlcNAc</t>
+          <t>Terminal_Man(a1-2)Man(a1-3)Man</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.1177476621057495</v>
+        <v>0.2321206585052388</v>
       </c>
       <c r="C81" t="n">
-        <v>0.2139843448209404</v>
+        <v>0.1717753152150538</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6138697955480772</v>
+        <v>0.6370720140144684</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0.9263732886103964</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H81" t="n">
-        <v>0.260796126518838</v>
+        <v>0.2412858889956672</v>
       </c>
       <c r="I81" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)[Gal(?1-?)]GlcNAc</t>
+          <t>Terminal_Man(a1-?)</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.009437560657019475</v>
+        <v>1.165563500117815</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.5981894800794407</v>
+        <v>0.1735201692626296</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6131908684043357</v>
+        <v>0.6329081798327871</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H82" t="n">
-        <v>-0.2585295117804576</v>
+        <v>0.2443564887789278</v>
       </c>
       <c r="I82" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Gc(a2-3)Gal(b1-3)GalNAc</t>
+          <t>Terminal_Man(a1-?)Man(a1-?)Man</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.07302031058417334</v>
+        <v>1.090905329848009</v>
       </c>
       <c r="C83" t="n">
-        <v>0.266061135030234</v>
+        <v>0.1735837544941168</v>
       </c>
       <c r="D83" t="n">
-        <v>0.6022402605428625</v>
+        <v>0.6302336719176471</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H83" t="n">
-        <v>0.2668053873659808</v>
+        <v>0.2462630167145949</v>
       </c>
       <c r="I83" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Terminal_GlcNAc(a1-4)Gal(b1-3)GalNAc</t>
+          <t>Terminal_Man(?1-?)</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.5481463665630627</v>
+        <v>0.2367398898066772</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.1042767669035252</v>
+        <v>0.1728696629183037</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5909541859174778</v>
+        <v>0.6296373160985307</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H84" t="n">
-        <v>-0.2753628967979307</v>
+        <v>0.2465635743926646</v>
       </c>
       <c r="I84" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(b1-4)GlcNAc(b1-3)Gal</t>
+          <t>Terminal_Gal(b1-3)[Neu5Ac(a2-6)]GalNAc</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.2079880079051294</v>
+        <v>0.03264536328989978</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.09835728683532441</v>
+        <v>-0.186693087659461</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5893472498842673</v>
+        <v>0.5885242152677865</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H85" t="n">
-        <v>-0.2763334024822879</v>
+        <v>-0.2768499418514577</v>
       </c>
       <c r="I85" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="86">
@@ -3091,214 +3091,214 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.5221086722259201</v>
+        <v>0.5208380011228788</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1956164958037854</v>
+        <v>0.1902463511461496</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5889239342492318</v>
+        <v>0.5814049375216915</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H86" t="n">
-        <v>0.2767371114662805</v>
+        <v>0.2823366515241894</v>
       </c>
       <c r="I86" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(?1-?)Gal(?1-?)GlcNAc</t>
+          <t>Terminal_Fuc(a1-?)GalNAc</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.02081519688257533</v>
+        <v>0.02654668026438092</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.3279197502260722</v>
+        <v>-0.1027915034986475</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5875597680512127</v>
+        <v>0.5797864587457072</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H87" t="n">
-        <v>-0.2783202055357861</v>
+        <v>-0.2844934996402388</v>
       </c>
       <c r="I87" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-3)</t>
+          <t>Terminal_HexNAc(b1-?)GlcNAc(b1-?)</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1.003949205270091</v>
+        <v>0.4049101376551519</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.08183562384816767</v>
+        <v>-0.1179861241129974</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5617585855925489</v>
+        <v>0.5553033408001249</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.2980530832977866</v>
+        <v>-0.3021807969095009</v>
       </c>
       <c r="I88" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Terminal_Man(?1-?)</t>
+          <t>Terminal_Fuc(a1-?)GlcNAc(b1-?)</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.2373275434872384</v>
+        <v>0.3146450873153989</v>
       </c>
       <c r="C89" t="n">
-        <v>0.2344357618189843</v>
+        <v>-0.1501235128214327</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5590707296659303</v>
+        <v>0.55036233743975</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2996435595561959</v>
+        <v>-0.3061106368831139</v>
       </c>
       <c r="I89" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)GalNAc</t>
+          <t>Terminal_Fuc(a1-2)Gal(b1-3)</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.9048662435321274</v>
+        <v>2.443489518611266</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.1115975887550933</v>
+        <v>-0.07574584222289538</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5589767605931051</v>
+        <v>0.5498347967230892</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.3009367710702737</v>
+        <v>-0.3065638962211983</v>
       </c>
       <c r="I90" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Terminal_GalNAc(a1-3)Gal(b1-4)GlcNAc</t>
+          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)GalNAc</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.05436411306217512</v>
+        <v>0.9102986408155482</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.1865112718530141</v>
+        <v>-0.1162124464313017</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5445634125101286</v>
+        <v>0.549138633409743</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.311526474439161</v>
+        <v>-0.3086912212744417</v>
       </c>
       <c r="I91" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-2)Man(a1-6)Man</t>
+          <t>Terminal_HexNAc(?1-?)Gal(?1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.1037264100183537</v>
+        <v>0.02079967055500955</v>
       </c>
       <c r="C92" t="n">
-        <v>0.2116170535569885</v>
+        <v>-0.3651676821119205</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5349298596173424</v>
+        <v>0.5484470665166016</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H92" t="n">
-        <v>0.3182329526741872</v>
+        <v>-0.3084077504333801</v>
       </c>
       <c r="I92" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="93">
@@ -3308,152 +3308,152 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.1856615404900764</v>
+        <v>0.1852298402742668</v>
       </c>
       <c r="C93" t="n">
-        <v>0.2294201326573084</v>
+        <v>0.1983142131603617</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5136262344765784</v>
+        <v>0.5479272007340175</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H93" t="n">
-        <v>0.3353062849244993</v>
+        <v>0.3079552082886233</v>
       </c>
       <c r="I93" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Terminal_GlcNAc(b1-?)</t>
+          <t>Terminal_Man(a1-2)Man(a1-6)Man</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.8864757823078531</v>
+        <v>0.1034875023433732</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.1022556425112988</v>
+        <v>0.2162195837273013</v>
       </c>
       <c r="D94" t="n">
-        <v>0.504615886556125</v>
+        <v>0.5149999957475682</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.3431896414358123</v>
+        <v>0.3341639693399667</v>
       </c>
       <c r="I94" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(?1-?)GlcNAc(b1-?)GalNAc</t>
+          <t>Terminal_GlcNAc(b1-?)</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.09178023258393359</v>
+        <v>0.8875430386472347</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.1967384271584925</v>
+        <v>-0.1058434480070982</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5024667501997095</v>
+        <v>0.5023510673222547</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9649524046029981</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.3453855409582948</v>
+        <v>-0.3449562570178648</v>
       </c>
       <c r="I95" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Terminal_GlcNAc(a1-?)Gal(?1-?)GlcNAc</t>
+          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)Man</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.927167979835449</v>
+        <v>0.04338830956077707</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.008067808971540913</v>
+        <v>-0.003509513519689509</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9787035205380314</v>
+        <v>0.9868300338051903</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9890056628594843</v>
+        <v>0.9970008035034523</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.01359227351646003</v>
+        <v>-0.008408441793220372</v>
       </c>
       <c r="I96" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Terminal_GlcNAcOS(b1-6)GalNAc</t>
+          <t>Terminal_Gal(b1-3)[Neu5Gc(a2-6)]GalNAc</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.03689365364648568</v>
+        <v>0.003662705467423856</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0040798265695553</v>
+        <v>-0.001413555879260731</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9924573851858676</v>
+        <v>0.9970008035034523</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9924573851858676</v>
+        <v>0.9970008035034523</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0.9881930273712043</v>
+        <v>0.9998068257238286</v>
       </c>
       <c r="H97" t="n">
-        <v>0.004819092974469301</v>
+        <v>-0.00191585409162272</v>
       </c>
       <c r="I97" t="n">
-        <v>0.7487699593765782</v>
+        <v>0.749240021558649</v>
       </c>
     </row>
   </sheetData>
